--- a/result.xlsx
+++ b/result.xlsx
@@ -468,9 +468,9 @@
 ③ ✨인스타그램 게시물✨에 좋아요 누르고 댓글로 비바샘 계정 아이디를 남겨 참여 인증하기
 (비바샘 계정 아이디를 남겨주시면, 당첨 확률 UP!)
 🎁 상품
-◽1등 : 교촌치킨 콤보웨지감자세트(40명)
-◽2등 : 신세계 모바일 상품권 10,000원권 (50명)
-◽3등 : 스타벅스 아이스 카페 라떼 (100명)
+◽1등 : 교촌치킨 콤보웨지감자세트
+◽2등 : 신세계 모바일 상품권 10,000원권
+◽3등 : 스타벅스 아이스 카페 라떼
 ❗❗ 게시물에 해시태그를 추가하지 않으면 참여로 인정되지 않으니 상단의 해시태그를 꼭 추가해주세요
 🔎 비바샘은 초/중/고 학교 선생님을 위한 수업지원 사이트입니다. 회원가입 및 사이트 자료 이용을 위해서는 선생님 인증이 필요합니다
 #비상교육 #비바샘 #초등비바샘 #중고등비바샘 #visang</t>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,29 +451,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vivasam_official</t>
+          <t>visang_wisecamp</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[이벤트] 우리 학교 보물 자랑하기 OPEN✨
-💎 바쁜 일상 속, 선생님께 작은 기쁨을 가져다주는 우리 학교 보물 1호는 무엇인가요? 우리 학교만의 반짝반짝 빛나는 보물을 자랑해주세요!
-아름다운 학교 전경, 매력 만점 인기 스타, 학교 대표 꽃 등 학교의 자랑이 될만한 무엇이든지 게시글과 함께 인증사진을 올려주시면 추첨을 통해 푸짐한 선물을 보내드립니다!
-🌈 참여 기간 : 7월 4일 (월) ~ 7월 31일 (일)
-🌈 당첨자 발표 : 8월 3일 (수)
-📌참여방법(❗이벤트는 비바샘 인스타그램에서 참여해 주세요!)
-① 비바샘 공식 인스타그램 팔로우, 페이스북 좋아요 누르기
-② &lt;우리 학교의 보물 1호&gt;를 자랑하는 게시물을 ✨인스타그램✨에 업로드 하고 필수 해시태그 추가하기
-👉🏻#VISANG #비상교육 #비바샘 #vivasam #우리학교보물1호 #비바샘이벤트 #EVENT
-③ ✨인스타그램 게시물✨에 좋아요 누르고 댓글로 비바샘 계정 아이디를 남겨 참여 인증하기
-(비바샘 계정 아이디를 남겨주시면, 당첨 확률 UP!)
-🎁 상품
-◽1등 : 교촌치킨 콤보웨지감자세트
-◽2등 : 신세계 모바일 상품권 10,000원권
-◽3등 : 스타벅스 아이스 카페 라떼
-❗❗ 게시물에 해시태그를 추가하지 않으면 참여로 인정되지 않으니 상단의 해시태그를 꼭 추가해주세요
-🔎 비바샘은 초/중/고 학교 선생님을 위한 수업지원 사이트입니다. 회원가입 및 사이트 자료 이용을 위해서는 선생님 인증이 필요합니다
-#비상교육 #비바샘 #초등비바샘 #중고등비바샘 #visang</t>
+          <t>📣와이즈캠프 인스타그램 팔로우 #EVENT
+와이즈캠프 팔로우를 하고 친구를 소환하면
+총 50분께 시~원한 커피를 드려요💙
+📌참여 방법
+1. 와이즈캠프 인스타그램 팔로우!
+2. 댓글로 친구 소환하고, 와이즈캠프 소개해주기
+EX. 메타인지를 키워주는 초등 스마트학습 프로그램이야!
+🎁이벤트 상품
+스타벅스 아메리카노 (50명)
+✔참여 기간
+8월 4일(목)~8월 18일(목) / 2주간
+✔당첨자 발표
+8월 23일(화)
+대댓글 발표 및 개별DM 발송
+#와이즈캠프 #비상교육 #초등교육
+#메타인지 #메타학습법 #메타인지학습법</t>
         </is>
       </c>
     </row>
@@ -483,12 +481,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jiyoung3584</t>
+          <t>visang_wisecamp</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>뭐니뭐니해도 오래된 건물. 아이디 vngoc0</t>
+          <t>💙</t>
         </is>
       </c>
     </row>
@@ -498,12 +496,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>coeseonim76</t>
+          <t>visang_wisecamp</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>비바샘아이디 summp1010 우리학교보물 우리반 아이들.학교교정, 한누리공원입니다~비바샘 감사합니다❤️❤️❤️</t>
+          <t>#이벤트그램 #이벤트스타그램 #팔로우이벤트 #팔로우이벤트중 #스타벅스기프티콘이벤트 #기프티콘이벤트 #친구소환이벤트 #팔로우이벤트진행중 #이벤트참여 #이벤트진행중 #이벤트진행 #기프티콘선물 #기프티콘증정 #스타벅스기프티콘 #초딩맘스타그램 #초등맘슽그램 #메타인지학습법 #메타인지학습 #메타인지 #인스타그램팔로우 #인스타그램팔로우이벤트</t>
         </is>
       </c>
     </row>
@@ -513,12 +511,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>coeseonim76</t>
+          <t>dltndus0825</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>summp1010 우리학교보물은 우리반 아이들, 한누리공원과 학교교정 입니다❤️❤️ 늘 비바샘 응원합니다~감사합니다!^^</t>
+          <t>기초부터 튼튼 하게 와이즈캠프 로 기초부터 튼튼하게 잡고 가자
+💗💝
+#모르는사람없도록소문낼께요
+#참여완료 #좋아요완료 #리그램완료
+항상 다양한 정보를 통해 좋은 소식 많이 전해주세요 😍 많은분들과 함께 소통하고  항상 사랑받길 진심으로 응원합니다.
+항상 늘 꽃길만 걸어요🌸
+@1163soo
+@raja3652kkh
+@kim8804kim
+@sh11630223</t>
         </is>
       </c>
     </row>
@@ -528,12 +535,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>poweryoo2000</t>
+          <t>cshoon3136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>비바샘 아이디 poweryoo2000</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 를 소개합니다❤️많은분들의 관심과 사랑받으시길 응원합니다❤️ @blairjay0118 @clickymk @chobo1298 @danbee2004 @sewill_moon @goodd_199 @jeonjeongweon57 @jeongjinbaeg2 @songjunceon @zzung_loves</t>
         </is>
       </c>
     </row>
@@ -543,12 +550,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>poweryoo2000</t>
+          <t>sj140413</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>비바샘아이디 poweryoo2000</t>
+          <t>초등 스마트학습은 요즘 핫한 메타인지를 키워주는 프로그램#와이즈캠프지 @dongho8093
+@ms820425 @seul3hui_pac @issue12344321 @jiyxul_p</t>
         </is>
       </c>
     </row>
@@ -558,12 +566,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>muh_0608</t>
+          <t>kilhwa0611</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>우리학교의 보물 1호 "우담바라"입니다. 올해 여름 천년에 한 번 핀다는 불교 전설의 꽃이 학교에 피었습니다! #비바샘#우리학교보물1호#VISANG 비바샘 아이디:rainyuri</t>
+          <t>@eunhwa782 @lhngia75 @dwathe457 메타인지 키워주는 스마트 학습 프로그램 #와이즈캠프 잊지말기❣️😊😊</t>
         </is>
       </c>
     </row>
@@ -573,12 +581,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>uoiavuie</t>
+          <t>t0_028</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>비바샘아이디 hodidi 입니다 참여완료!</t>
+          <t>와이즈캠프 구경하고 가즈아👏
+@h.sangyeon @wwwa_1986 @flowerman572 @9191qwer</t>
         </is>
       </c>
     </row>
@@ -588,20 +597,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rsrsgmin</t>
+          <t>e__jooooo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>비바샘계정:rsrsgmin우리학교보물 1호는 교장, 교감선생님입니다.
-두 분은 항상 선생님들 입장을 배려하고 어떻게 하면 선생님들이 행복하게 학교 생활을 할 수 있을지 항상 고민해주십니다.
-한 가지 일화로,
-한 선생님께서 교장선생님께서 저희의 교육활동을 크게 간섭하지 않으시고 항상 믿어주셔서 저희가 자발적으로 더 열심히 수업에 임하는 것 같다고 이야기하였더니,
-교장선생님께서는 "원래 똑똑한 사람들이 알아서 잘 하고 괜히 간섭하면 하기싫어지는 법이라고 선생님께서 똑똑하셔서 그런거에요^^"라고 말씀하셨습니다.
-또 저희 교감선생님께서는 선생님이 민원이나 학부모와의 관계로 힘들어할 때 항상 자신을 부르라고 말씀하시며 어떤 일이 있어도 기꺼이 오셔서 상담해주십니다.
-교감선생님의 어록으로는
-"선생님 이번 일은 우리 예방주사 세게 맞는다고 생각하고 함께 해결해봅시다!!"라고 말씀해주셨습니다.
-항상 선생님들을 믿어주시고 한 가지 간식이라도 주위 어떤 가게의 어떤 메뉴가 맛있을지 생각하시는 작은 고민부터 어려움이 닥친 선생님께 항상 힘이 되어주시는 저희 관리자분들이 바로 우리학교의 보물1호입니다❤</t>
+          <t>와이즈캠프 팔로우하자❤️ 메타인지 키워주는 초등 스마트학습 프로그램이야😍 @gangsic @jxxng._.eat @gustnr6511 @vo_.ov</t>
         </is>
       </c>
     </row>
@@ -611,12 +612,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>heeimish</t>
+          <t>_hwangvelyjoo_</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>비바샘 아이디 sayhyunhee 우리학교 보물1호는 남고만의 체육에 대한 의지, 열망, 승부욕? 🥰</t>
+          <t>와이즈캠프 하자 👏🔥
+메타인지를 키워주는 초등 스마트학습 프로그램이랴~!!!
+@iridescent_.223 @three8989
+@ss.oni @je__je__jo__ @happy_jiseon0117 @woomom_ju1828 @j_soyoung_</t>
         </is>
       </c>
     </row>
@@ -626,12 +630,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1992.1121</t>
+          <t>yunkyung09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>참여완료 🌱 @iam_yourbunny_ @xriverrxx @_adorableh https://www.instagram.com/p/Cgqqg-KprO9/?igshid=YmMyMTA2M2Y=</t>
+          <t>@yaya909650 @houjin2012 @ymk.s1102 @you_are_wellcome_ @you_like_yu_ @smiletoday05 @junga_1366 @jungmis_s @iamjoannekim @kyunga0228 기초부터 튼튼하게 자기주도학습 메타학습은 와이즈캠프지~ ❤️</t>
         </is>
       </c>
     </row>
@@ -641,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ms._treasure</t>
+          <t>zani7.9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>💎참여 완료💎 비바샘 계정 아이디는 new_2018 입니다. 이런 이벤트 열어주셔서 감사해요, 비바샘! 항상 응원할게요. 💙</t>
+          <t>✨️와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램 ~~ #와이즈캠프 #비상교육 #메타인지 #메타학습법 #메타인지학습법 @seonyeong6069 @joys_0621 @9191qwer @36plan_wuuk @anna_._ep._nakj @mmonggotchi @ihyeonmi5063</t>
         </is>
       </c>
     </row>
@@ -656,12 +660,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>oak_anna</t>
+          <t>scanty0416</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>참여했어요! 비바샘아이디 island1829 입니다.</t>
+          <t>집사님들~~ 와이즈캠프는 메타인지를 키워주는 초등 스마트학습 프로그램이에요❤️ 집사님들도 함께해요😊 @scent0721 @king_cat_7 @jjagalti @eee2_hs @sewill_moon @dkosmor @klkl66784 @jjeong_ee__22 @mi.yuui @jj02_7321</t>
         </is>
       </c>
     </row>
@@ -671,12 +675,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>typetype1123</t>
+          <t>mdragon96</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>비바샘 아이디 erica09 입니다 아름다운 학교 풍경이 보물입니다❤️</t>
+          <t>메타인지는?? 와이즈캠프~!!🔥🔥@young_menm @taebaek.shop @daramgee.official</t>
         </is>
       </c>
     </row>
@@ -686,12 +690,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mozzinmozzi</t>
+          <t>bongjaristick</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>참여완료❤️ 비바샘ID mentorgaon 입니다</t>
+          <t>참여완료 @doryoris @opoi.91 @0solhui0</t>
         </is>
       </c>
     </row>
@@ -701,12 +705,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>wisdom0505</t>
+          <t>kallgoll</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>참여했어요^^ 아이디는 clclcl77입니다</t>
+          <t>#와이즈캠프 팔로우완료 좋아요 언제나 응원합니다
+함께해요 @hanhulk_ @kimdhee0524 @jangsungjooo</t>
         </is>
       </c>
     </row>
@@ -716,12 +721,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>juju_lucky77</t>
+          <t>jin05231</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>참여완료 아이디 ysa1113입니다</t>
+          <t>@sungjoon0826</t>
         </is>
       </c>
     </row>
@@ -731,12 +736,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hrys0208</t>
+          <t>brighthun___7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>참여완료❤️ 비바샘 아이디 hraaron 😍</t>
+          <t>🤞
+초등 아이들에게 메타인지를 키워준다는데 넘나 기대뿜뿜~ 칭구들도 알아두자구!
+ㄟ( ▔, ▔ )ㄏ
+@sweetrin @boraya95 @woo_ri_love</t>
         </is>
       </c>
     </row>
@@ -746,12 +754,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ddiddi.486</t>
+          <t>bbo1225z</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>참여완료! 비바샘 아이디는 amor2104 입니다!</t>
+          <t>와이즈캠프 메타인지를 키워준대 멋지다 @suim339 @lala339a @bb071507</t>
         </is>
       </c>
     </row>
@@ -761,12 +769,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>huhuhu__1003</t>
+          <t>gugunine99</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>우리학교보물 토마토맛집 텃밭을 소개합니다 아이디 okpfeo</t>
+          <t>팔로우 완료 했어요
+함께하는 많은 분들이 행복해 졌으면 좋겠어요~ 응원할께요~
+@benequeen111 @guin_guini 함께하자~</t>
         </is>
       </c>
     </row>
@@ -776,12 +786,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sajh0715</t>
+          <t>eunhwa782</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>참여완료 비바샘아이디shypurple84</t>
+          <t>팔로우완료 ~⭐️ 메타인지 키워주는 스마트 학습 프로그램 #와이즈캠프 함께 하자 ~🤗🤗 @gnin132 @jangjaewoo73 @dwathe457</t>
         </is>
       </c>
     </row>
@@ -791,12 +801,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>myyummy__20</t>
+          <t>btongee</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>비바샘 아이디 herbmy20 참여완료!</t>
+          <t>친구야 와이즈캠프 알아?? 메타인지를 키워주는 스마트 학습 프로그램이래!! 참가해봐!! 😍 @sueprout_ @zi_dorkan3 @zgyayaya</t>
         </is>
       </c>
     </row>
@@ -806,14 +816,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>yoo_0513</t>
+          <t>djhnl523</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>우리학교의 보물💎🥇호 를 소개합니다.
-🪴🌳생태환경텃밭🌼🌺이랍니다!
-운동장 주변에 텃밭을 아이들이 직접 가꾸고, 교실에서는 각자 식물을 키워요~⭐️아이들이 수확한 작물을 직접 먹어보기도 하고 방학 때는 함께 관리하기도 하며 지구🌎를 살리는 일에 동참하고 있어요:) #비바샘이벤트참여 - 비바샘 아이디:eugene09</t>
+          <t>#와이즈캠프 #팔로우 &amp; #좋아요완료❤️ 앞으로도 유익하고 알찬 소식과 정보와 함께 더욱 아낌없는 사랑과 관심 듬뿍 받으시길 응원합니다🙏👍 @jiann_y3635 @dambimun @asoen0310 @jin_hongseob @nare_ny @hyeonmi6787 @hong_jeong_eun @duheon.coe 기초부터 튼튼하게 자기주도학습 메타학습 #와이즈캠프 와 함께해요😍❤️</t>
         </is>
       </c>
     </row>
@@ -823,12 +831,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sajh0715</t>
+          <t>globetrotterelijah</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>참여완료🔥아이디sajh0715</t>
+          <t>#와이즈캠프 #팔로우 #좋아요 @visit2korea 메타인지를 키워주는 초등 스마트학습 프로그램이야!</t>
         </is>
       </c>
     </row>
@@ -838,12 +846,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>banjjagbanjjag69</t>
+          <t>kim89q</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>아이디 dandelion177 우리학교 보물은 우리 친구들입니다♡</t>
+          <t>메타인지를 키워주는 와이즈캠프하자😆 @dukio665 @kyss340i @jkou675s</t>
         </is>
       </c>
     </row>
@@ -853,12 +861,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>hanelly17</t>
+          <t>yunjeong0522</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>참여완료했습니다❤️ 아이디:hanelly17</t>
+          <t>@dhtjswn100 @sie_mrlee ❤️메타인지 키워주는 스마트학습 프로그램😍</t>
         </is>
       </c>
     </row>
@@ -868,12 +876,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bagoghyi45</t>
+          <t>happyon6703</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>'우리 학교의 보물1호'는 교학상장입니다.더 넓은 한새벌판에 자리잡고 있는 이 학교는 선생님과 학생이 하나가 되어 더높은 꿈을 향해 열심히 정진하고 있습니다.부산교육의 일번지 사직동!!!</t>
+          <t>자기주도학습 메타학습 #와이즈캠프 많은 분들에게 사랑 받으시길 응원합니다 ❤️ @peach0242 @clickymk @lmj770921 @s.young000 @sangugim3605 @soobinqkr3340 @ririca7 함께해요 ^^</t>
         </is>
       </c>
     </row>
@@ -883,12 +891,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bagoghyi45</t>
+          <t>cjdgnsdhkd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>park1961</t>
+          <t>팔로우완료❤️ #와이즈캠프 #비상교육 #초등교육 #메타인지 #메타학습법 #메타인지학습법❤️ @lmmmin33 @jhyeon4423 @zoop121212 @taein_abeom @m.lovesu @lmj770921 @zhddl1233 @mybchosim @jeonjeongweon57 @kilhwa0611</t>
         </is>
       </c>
     </row>
@@ -898,12 +906,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bagoghyi45</t>
+          <t>jhjhyui</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>@bagoghyi45</t>
+          <t>메타학습법은 #와이즈캠프 로! @zz_ii_zz_oo</t>
         </is>
       </c>
     </row>
@@ -913,12 +921,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bagoghyi45</t>
+          <t>superrookie486</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>park1961</t>
+          <t>와이즈캠프는 메타인지를 키워주는 초등 스마트학습 프로그램이야 @woo_k97</t>
         </is>
       </c>
     </row>
@@ -928,12 +936,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dagun1320</t>
+          <t>gjh112</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>우리학교 보물은 조경,텃밭, 야외학습장입니다.^^미션완료,비바샘 인스타팔로우 좋아요 완료~비바샘 아이디 ysixline 번창하세요~</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램을 와이즈캠프와 함께해요 （☝ ՞ਊ ՞）☝
+@jangyeyun658 @gimseongmin5115
+@jangyeyun658 @gimseongmin511 @einspanner3803</t>
         </is>
       </c>
     </row>
@@ -943,12 +953,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>gooksoo.t</t>
+          <t>babychavha__</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>우리 학교 보물1호는 통통 튀는 아이들✨️ 비바샘 아이디 dbstn19 이벤트 참여합니당✨️ https://www.instagram.com/p/CggX-oIv8N4/?igshid=YmMyMTA2M2Y=</t>
+          <t>@c.eu2n 👏👏와이즈캠프 구경하고가즈아</t>
         </is>
       </c>
     </row>
@@ -958,12 +968,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gogosum</t>
+          <t>dsrkmoonsky</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>비바샘아이디 winners</t>
+          <t>와이즈캠프 팔로우하자❤️❤️ 메타인지를 키워주는 초등 스마트 학습 프로그램 이라네 @darksky_moon @heugrang @kwanpak815 @ss_ssk00 @samdoleehago</t>
         </is>
       </c>
     </row>
@@ -973,12 +983,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>richgo100</t>
+          <t>guin_guini</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>아이디 ykpink1 우리학교 보물 1호는 넓고 안전한 인조잔디로 단장한 운동장입니다~~</t>
+          <t>팔로우 완료해요 ❤️ 항상 응원할께요 🎉 @gugunine99 @benequeen111</t>
         </is>
       </c>
     </row>
@@ -988,12 +998,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>kor_chaeyoung</t>
+          <t>ddochimomi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>#VISANG #비상교육 #비바샘 #vivasam #비바샘이벤트 #우리학교보물1</t>
+          <t>#팔로우완료 @narangi112 @yhsoon3116 @gomiggomi @doremin13 우리 같이 #와이즈캠프 팔로우하고 메타인지 스마트 학습 프로그램 체험해보자!</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1013,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>dfhutv</t>
+          <t>fl.yeonwoo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>비바샘 아이디 dear9</t>
+          <t>@hyhylove0620 초등 준비는 와캠으로! 😍 @joonwoo_father 진정한 자기주도학습에 AI 맞춤학습엔 와캠이 최고지!! ❤️</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1028,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>hellosll</t>
+          <t>hellow_to_c</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>우리학교 보물1호는 당연히 우리반 학생들 입니당♡♡ 다들 그런거 아니겠어요? 엄마한테는 자기 자식이 젤 예뻐보이고 담임쌤한테는 우리반이 제일 예쁘고 소중하고....❤️❤️ 내가 학교에 가는 이유 나의 힘이 되주는 우리반 친구들 사진 잔뜩 올렸습니다❤️❤️ 비바샘 아이디 hellosll 입니다&gt;&lt;</t>
+          <t>#팔로우완료 @ikik3636 @juuyuu33 @somiyoungkim 우리 같이 똑똑한 초등 스마트학습 프로그램 #와이즈캠프 랑 친구하고 선물받자 ^^</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1043,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mt2.mth</t>
+          <t>hgm_0228</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>비바샘 아이디 tang7162 참여인증입니당</t>
+          <t>팔로우 완료! 메타인지 키워주는 초등 스마트학습 프로그램 와이즈캠프 팔로우 고고💙 @hongmidream @younyunu</t>
         </is>
       </c>
     </row>
@@ -1048,12 +1058,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>neilsuk0</t>
+          <t>joinriou1233</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>좋아요 팔로우 완료 비바샘 계정neilsuk 😍</t>
+          <t>와이즈캠프는 메타인지를 키워주는 초등 스마트학습 프로그램이에요❤️ 함께해요😊 ❤️팔로우 완료❤️참여완료😍함께해요😍 @joinis6 @uuuuuiqqqqq @fjxndx</t>
         </is>
       </c>
     </row>
@@ -1063,16 +1073,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>maehyang_middle</t>
+          <t>summer___hate</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>우리 #매향중학교 에는 맛있고 건강한 급식, 예쁜 교복, 멋진 교정, 학교에서 키우는 귀여운 동물들, 친절한 선생님, 스마트한 교육환경, 깨끗한 학교 시설, 훌륭한 위인 선배님 등 너무나 많은 장점들이 있습니다!
-하지만 오늘은 최근에 꽃을 피운 매향바라기를 자랑하고 싶어요💛
-#전교생 #전교직원 이 #1인1식물 로 키운 매향 해바라기!
-생명을 소중히 생각하며 작은 씨앗에서부터 꽃이 피기까지 매일 물을 주고 해바라기에게 사랑의 말을 건네며 정성껏 키우고 있는 우리 학교의 보물 #매향 #해바라기를 자랑합니다 💛🌻
-비바샘 계정 아이디 : jhyun91</t>
+          <t>와이즈캠프 함께 합시다 @superrookie486 @rroseroserosedayy</t>
         </is>
       </c>
     </row>
@@ -1082,12 +1088,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>buksun8771</t>
+          <t>eee2_hs</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>미션완료요❤️비바샘계정 buksun ❤️❤️</t>
+          <t>와이즈캠프는 쉽고 재미있게 공부습관을 만드는 초등 전과목 완전학습!! @cshoon3136 @emmaoh0 @moun_s9</t>
         </is>
       </c>
     </row>
@@ -1097,12 +1103,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>dfhutv</t>
+          <t>b_p_d_q</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>비바샘 아이디 dear9 좋아요와 팔로우 사진과 해시태그 게시 완료 https://www.instagram.com/p/CgcyNaaBqdH/?igshid=YmMyMTA2M2Y= #VISANG #비상교육 #비바샘 #vivasam #비바샘이벤트 #우리학교보물1호</t>
+          <t>@lluuuullaaaa @eatggu 학년별 맞춤교육 가능하대 !!!</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1118,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>rara12243</t>
+          <t>alald47</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>socioedu 우리학교 보물 올렸어요. 감사합니다.</t>
+          <t>와이즈캠프는 메타인지를 키워주는 초등 스마트학습 프로그램이야!😄😄 @jisoo__00</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1133,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>onestar._.gram_</t>
+          <t>jelliedjelly</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>비바샘 계정: gksquf8195
-참여완료입니다 ^.^
-#VISANG #비상교육 #비바샘 #vivasam #우리학교보물1호 #비바샘이벤트 #EVENT</t>
+          <t>팔로우 완료!! 🔥🔥 고학년은 와이즈캠프가 더 좋다네요 @go_hyuntae</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1148,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>aalow_a</t>
+          <t>wonyoung0709</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>비바샘 아이디 drowndevil 우리학교보물1호는 우리반입니다</t>
+          <t>@visang_wisecamp #와이즈캠프 팔로우 좋아요 완료~^^ 메타인지를 키워주는 초등 스마트 학습 프로그램~@springvstar</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1163,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>hhh._.ev</t>
+          <t>oyeonjeong2000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>아이디 alsl0213 참여했어요^^</t>
+          <t>#와이즈캠프 팔로우 완료 ^^</t>
         </is>
       </c>
     </row>
@@ -1174,12 +1178,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>creative77111</t>
+          <t>bbosong_daddy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>우리 학교 보물은 벚꽃 길입니다.❤️creative77</t>
+          <t>🙌 @ongs_q</t>
         </is>
       </c>
     </row>
@@ -1189,13 +1193,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>09skylover21</t>
+          <t>kunk5516</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CgbuUjwPRCj/?igshid=YmMyMTA2M2Y=
-비바샘아이디 : skylover0921</t>
+          <t>#와이즈캠프 팔로우 이벤트 좋아요 참여완료
+@wacot94 @joowonjjjang</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1209,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pro1ogu2</t>
+          <t>hyee__1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>비바샘아이디 tpsong</t>
+          <t>와이즈캠프는 초등학생 대상으로 메타인지를 키워주는 멋진 스마트학습 프로그램이래😍 팔로우 하고 소문내자~~~♥️ @ddok_sunii @yuuummy_life @jiweon6149 @minja0620 #와이즈캠프</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1224,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ysneee2021</t>
+          <t>kikikikickki</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>비바쌤 아이디 yangsoon55 입니다~!</t>
+          <t>메타학습 함께해요 @yeon2724</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1239,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jinn00_slime</t>
+          <t>mumu_in_seoul</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>hjyoung323 참여합니다~!!</t>
+          <t>참여완료
+@j.i_hyn 와이즈캠프 같이하자</t>
         </is>
       </c>
     </row>
@@ -1250,13 +1255,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>luly129000</t>
+          <t>gweongyeonghyi209</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>우리학교보물1호 미션완료🙌🙌
-비바샘 아이디 hyelin5034</t>
+          <t>❤️메타린지를 키워주는 초등스마트 학습프로그램이야❤️❤️@hwanghoyeong10 @hwang_ho_young</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1270,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>haneunjeong9325</t>
+          <t>shfkddlv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>비바샘 아이디 eunjhan</t>
+          <t>와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램이야 @caejeongog2 @jeongmigyeong336</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1285,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1_kyne_tccic0608</t>
+          <t>minraelri</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>hyesun1122 참여했습니다</t>
+          <t>@cookttara_50 주입식교육은 노노 직접 쓰고 따라하는 와이즈캠프 굿굿</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1300,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>dreampopsong.book</t>
+          <t>jeongjinbaeg2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>미션완료🔥 비바샘 아이디 dreampopsong 입니다:)</t>
+          <t>와이즈캠프는 메타인지를 키워주는 초등 스마트학습 프로그램을 소개합니다🙌@cshoon3136 @peachlike1004 @sweetpotato_yelo</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1315,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ppol.lini</t>
+          <t>benequeen111</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>우리학교의 보물 1호는... 사랑스러운 아이들 입니다😍 [ 비바샘 아이디 cokly ]</t>
+          <t>팔로우 완료 😍 우리 함께해요 ❤️ @gugunine99 @guin_guini</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1330,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>hazel.im.93</t>
+          <t>jeongring_</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>비바샘아이디 gkwjd089 참여했어요~ 보물은 우리반아이들 게시글에 헤시태그와 사진까지 게시 완료!</t>
+          <t>와이즈캠프 팔로우하자❤️ 메타인지 키워주는 초등 스마트학습 프로그램 입니다. @kczoo_ 🔥🔥🔥🔥🔥</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1345,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>yeolmaehello</t>
+          <t>joo_joo6779</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>비바샘아이디 lovelyalice입니다😍</t>
+          <t>@iyuna3206 @koon_koon70007 메타인지를 키워주는 초등 스마트학습 프로그램이야 #좋아요완료 #팔로우완료</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1360,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>wizardlord0229</t>
+          <t>lala339a</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>비바샘아이디 qwer0619 보물은 아이들이에요</t>
+          <t>와이즈캠프로 메타인지 키워보자!! 상위 0.1% 가보자구~ @bbo1225z @suim339 @bb071507</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1375,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>shortpresto</t>
+          <t>she.joy22</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>아이디 dlghtjr 우리학교 보물 1호는 다양한 교과연계 프로그램들입니다.</t>
+          <t>메타인지 키워주는 스마트 학습 프로그램 #와이즈캠프 잊지말기❣️ @yuki._.ruki @hga1_67 @bboya119 @220530b</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1390,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>nice_dodam2</t>
+          <t>yuki._.ruki</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>미션완료, 아이디:nice_dodam2, 우리학교 보물은 봄에 예쁘게 활짝피는 벗꽃이에요^^, #VISANG #비상교육 #비바샘 #vivasam #우리학교보물1호 #비바샘이벤트 #EVENT</t>
+          <t>메타인지 키워주는 스마트 학습 프로그램 와이즈캠프 잊지말쟈 !!! 💙@jaja910101 @clcl_010 @qpqp_baby @qaqazxzx01 @hi_hello_2022</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1405,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>choi_hana1234</t>
+          <t>khyminsh</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>미션 완료♡@hana_choi1234</t>
+          <t>팔로우 완료. @lee2580_hy @jiwoomom7 @shmw_000 메타인지를 키워주는 초등 스마트 학습 프로그램 와이즈캠프 소개합니다.</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1420,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>wnqwnqrjf</t>
+          <t>star20190726</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>비바샘아이디 hyeajgirl 울학교 보물 아이들!</t>
+          <t>메타인지를 키워주는 초등스마트학습 프로그램이야~♥ 고고하자~♥ @maypole3521 @jong93651224★</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1435,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11yoooung</t>
+          <t>resembling_water</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>미션완료 tchlyn1751</t>
+          <t>결과 중심의 공부 방식에서 벗어나 흥미를 유발하는 새로운 공부 습관을 길러주는 #비상교육 #와이즈캠프 언제나 응원해요
+신나고 재미있는 공부 습관의 시작,
+#와이즈캠프는 별난 자신감으로 세상을 뒤집는 기발한 리더를 만들어주는 #와이즈캠프 언제나 응원할게요
+@win_win_plus @valleywater_ @water_love99</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1453,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>iaera85</t>
+          <t>63_eee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>aera22</t>
+          <t>와이즈캠프 메타인지를 키워주는 초등 스마트 학습 프로그램 이에요^^ 같이 아이들 학습능력 쑥쑥 키워봐요 @songsongeee @east.help_7769 @garlicsy0000</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1468,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>iaera85</t>
+          <t>rookie127127</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>@iaera85 학교 공사중</t>
+          <t>메타인지 키워주는 스마트학습 프로그램 와이즈캠프 @rove012486 @o9o9gram</t>
         </is>
       </c>
     </row>
@@ -1476,12 +1483,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>mongsira</t>
+          <t>nowonyy</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>우리학교 보물은 푸르름입니다^^ ID:mongsira</t>
+          <t>와이즈캠프 인스타그램 팔로우해요~다양하고 유익한 정보와 소식 많이 전해주시길 기대합니다. 쉽게 만날수없는 특별한 매력과 발빠른 소식까지~ 오늘부터 1일!! 많은 관심과 사랑받으시길 응원할께요 @yanox_gold @clint_chaa 빨리와</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1498,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>iareum7623</t>
+          <t>uuuu.__y</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>비바쌤 계정 arum30입니다. 우리 학교 보물 1호 공간은 문화 버스킹 공간입니다</t>
+          <t>맞춤형 밀착관리와 메타인지 높이는 학습법이야~~ @phlia130</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1513,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>iaera85</t>
+          <t>joowonjjjang</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>aera22</t>
+          <t>#와이즈캠프 팔로우 좋아요 참여완료
+공부 시작하자
+@jisunninam @mmisukimm</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1530,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>book_woods</t>
+          <t>popop_aa</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>비바샘 이이디 chang1999 이벤트 참어했어요~</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램! 팔로우하자 @hi_hello_2022 @yuki._.ruki @hga1_67 @bboya119 @220530b</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1545,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>kjklsjlsh</t>
+          <t>jisoo__00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>아이디 kimjk877 / 우리학교 보물은 복도 쪽 책 읽는 공간이에요~</t>
+          <t>😊😊와이즈캠프는 메타인지를 키워주는 초등 스마트학습 프로그램이야! @yomio1004</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1560,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ksde6965</t>
+          <t>rove012486</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>아이디 wjd5123 우리학교의자랑 벚꽃입니다~^^</t>
+          <t>와이즈캠프소식 전해🙌 @asqw0807</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1575,13 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jingukbak</t>
+          <t>jewjei</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>우리학교의 보물인 뚝배기르로꼭 자랑하고 시포요</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이래
+@takewin21 @__d__ojewelry_mom @woo.meat</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1591,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jingukbak</t>
+          <t>dovmfk30</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>아이디 gedare777 참여했어요!</t>
+          <t>메타인지 키워주는 스마트 학습 프로그램 #와이즈캠프 꼭 알아두자 @dkssud_kr @akaksoss</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1606,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>22_bingbong</t>
+          <t>daily._.o</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>비바샘아이디 mint7373 입니다!</t>
+          <t>와이즈캠프 대박 ! 메타인지를 키워주는 학습이 된다구!! @imsooyeony</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1621,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>okbo77</t>
+          <t>mming_33</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>아이디 okbo77 참여햇어용^^ 우리학교 보물은 국회게양태극기, 그리고 현관에서 반겨주는 물고기들입니당</t>
+          <t>참여완료</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1636,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>alwjdtoa</t>
+          <t>star_stream_00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>alwjdtoa 보물자랑이벤트 참여했습니다 우리학교 정문앞의 벚꽃길을 자랑합니다 올해 학교를 옮기고 첨 봤지만 흐드러지게 핀 벚꽃아래서 울보물들과 사진을 안찍을수 없었죠~이쁜것+이쁜것 넘넘 이쁘지 않나요?^^</t>
+          <t>#참여완료🌟 #좋아요완료💫 #팔로우완료🌙
+@sky_blue_rose_
+@moonlight_s2_00
+@solar_story_00
+@ruru8038
+@star_dust_1004
+@jisus_today
+스마트 학습은 비상교육 와이즈캠프🙌🙌</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1658,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>asaph_goodseed3</t>
+          <t>choks7267</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>goodseed3 우리학교 보물1호 게시하였어요~ 늘 친절한 비바샘 화이팅!! 감사합니다</t>
+          <t>앞으로도 꽃길만 걸으시고 더욱더 발전하기를 응원합니다. 😍 팔로우하고 열열히 응원할게요! ~ 우리딸도 스마트 인지 활용으로 공부 열심히하면 좋겠어요!
+@Joyce_Somerville @Wardu_Mohmad @Mawbya_Khava</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1674,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>itsme_bbj</t>
+          <t>sinseonggong</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>여름방학에도 나와서 열심히 공부하는 우리 고3 친구들 입니다 ❤️ 수능 대박 화이팅 😍 비바샘ID : jsi00000</t>
+          <t>와이즈캠프소개해요@cshoon3136</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1689,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>slue94</t>
+          <t>brtmirae</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>비바샘 아이디 slue94&lt;우리학교 보물 1호&gt;우리학교 옆 남매지 아름다운 자연과 경관의 영향인지 아이들도 선생님들도 모두 착하고 성실해요. #VISANG #비상교육#비바샘#vivasam#우리학교봉술1호 #비바샘 이벤트 #EVENT</t>
+          <t>@icelllatte 메타인지를 키워주는 학습프로그램 와이즈캠프 들어봤어?</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1704,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>chickenchacha9</t>
+          <t>chojjk30</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>미션완료! 우리학교의 보물 1호는 아이들이 직접 만들어가는 교실 환경 게시판입니다! 비바샘 ID: hspark95</t>
+          <t>메타인지 키워주는 초등 스마트학습 프로그램인 와이즈캠프 팔로우는 기본이지 @iris761022 @gotaso0 @coya0302 @dkdudk39</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1719,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>seolky</t>
+          <t>kyoungah789</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>수주고 연못 수연지입니다! 동아리 친구들이 멋지게 가꾸었어요! 👏👏 비바샘 bseseol</t>
+          <t>메타인지 학습 프로그램이에요~☺@chjy1232000</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1734,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>v___vit</t>
+          <t>seo_love_star</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>onqkek 감사합니다 :)😆</t>
+          <t>참여완료</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1749,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>blackbean1994</t>
+          <t>skacjfrl</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>우리학교 보물 1호는 최신식 에어컨🔥🔥 아이디:chfhddl203</t>
+          <t>- 참여합니다. 언제나 사랑으로 인친님들 함께해요 ^^
+@priapus1130 @sevenho80 @ddemson770 @wytmzk79 @freechal44
+https://www.instagram.com/p/ChBmdOWLC-m/?utm_source=ig_web_copy_link</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1766,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>cozzang12</t>
+          <t>prin_milky</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>비바샘 아이디: ahrmffl21 우리학교 보물 1호는 여름에 보는 함박눈 내리는날 학교 풍경 / 게시글에 해시태그 했습니다!</t>
+          <t>#와이즈캠프 팔로우와 좋아요 완료! 메타인지학습법을 소개해봅니다~ 아이들을 위해 많은관심 부탁해욧😁 @east.help_7769 
+@coeyeongsig938
+@saranimida @coco.dosi 
+@foxstar77 @7good56 
+@hey802624 @hyejin_jo_2 
+@puppy0doo
+@boomboomboom1110 👦🧒👧</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1787,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>soyeonmomjj</t>
+          <t>nnnnnibbbbb</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CgbUQZsPdlw/?igshid=YmMyMTA2M2Y= 참여했어요 비바샘아이디 oxygenjj23</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 를 소개합니다❤️많은분들의 관심과 사랑받으시길 응원합니다 😍팔로우 완료❤️참여완료😍좋아요😍 @joinriou1234 @dododudu423 @doit_chew</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1802,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bananacatdog</t>
+          <t>joins1998</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>비바샘 아이디 sophi112 딱 한 번 마주친 고양이🐈‍⬛ #VISANG #비상교육 #비바샘 #vivasam #우리학교보물1호 #비바샘이벤트 #EVENT</t>
+          <t>메타인지 키워주는 스마트 학습 프로그램 #와이즈캠프 잊지말기❣️😍팔로우완료❤️ 좋아요❤️ 참여완료😍 @ppukkukku @fseokim @uuuuuiqqqqq</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1817,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>nhwloveyou</t>
+          <t>jong93651224</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>nhw0882 우리간 보물1호는 더운 날 시원하게 체육할 수 있는 체육관!!!</t>
+          <t>@maypole3521 @star20190726 @hyun_ju_kim3521 😍❤️메타인지를 키워주는 초등 스마트학습 프로그램이야!</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1832,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sj0308sj</t>
+          <t>solar_story_00</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>미션완료 비바샘 인스타팔로우. 좋아요완료 .비바샘아이디는sj0308sj 보물은 .이쁜마음가진 학생들. 게시글에 해시태그도햇어요</t>
+          <t>#참여완료🎷 #좋아요완료💗 #팔로우완료🏵
+이벤트 응원합니다~
+🏅🎖🏅🎖🏅🎖🏅🎖🏅🎖🏅
+@sky_blue_rose_
+@moonlight_s2_00
+@star_dust_1004
+@ruru8038
+@star_stream_00
+@jisus_today
+함께 해요🍯
+୧( ⁼̴̶̤̀ω⁼̴̶̤́ )૭
+초등생 메타인지를 키워주는 스마트 학습 프로그램이래~~</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1858,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sj0308sj</t>
+          <t>phlia130</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>아이디sj0308sj 아이들이 보물아닐까여?</t>
+          <t>배운 것을 직접 쓰고 설명하여 메타인지 능력을 키우는 학습 방법이야 💙💙 @kar5ratn #와이즈캠프</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1873,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>hiakato</t>
+          <t>xoxochea</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>passion84 우리 학교 보물 1호 이벤트 참여합니다.</t>
+          <t>베타인지를 키워주는 스마트학습❤️ 팔로우완료! 🧡🥰 안녕하세요!^^🖐😍 너무 좋은 이벤트를 열어주셔서 감사합니다! 늘 피드 관심갖고 피드 지켜보고만 있었어요❤🤩🤩🙏 독박육아로 하루하루 지친 일상을 보내고 있는 7살 딸과 5살 비글 아들 키우는 젊은 남매 맘이예요 🤣 요새는 육아우울증이 아닌가 싶을정도로 힘이 드네요😭 가끔 멘탈이 탈탈 털리는 하루하루가..🥺 피드에 이벤트까지 참가하게 되어 육아중 너무 소확행이 될 것 같아요 ♥️ 신랑이 해외출장가서 6개월째 혼자 독박육아하고 있어요.. 정말 힘드네요..하하😂 남편따라 타지로 와서 주변에 부모님두 멀리 사시고 요새는 정말 한계가 매일매일 찾아오고 있어요.. 😭 아이들이 도 늘고 육아스트레스가 너무 가득해서 힘든 하루하루인데 당첨되면 얼마나 행복할까요! 힘든 하루 중에 정말 너무 행운이 될 것 같아요❤ 요새 너무 소확행이 필요하네요!
+제가 받으면 너무 행복하겠네요! 제 팔로우분들도 주변 어린이집 엄마들에게도 입소문으로 이벤트 많이 홍보도 하겠습니다! 👍😊 그리고 요새 블로그도 키우는 중이라 올해 목표는 파워블로거예요! 아직은 소소하지만^^.. 후기 열심히 쓰는 중인데 육아하다 시간남으면 틈틈이 이벤트 당첨 후기도 자세히 올리도록 하겠습니다! 🤩❤ 지역맘카페에서 열심히 활동하는 맘카페 죽순이라 후기 글도 올리겠습니다. 물론 인스타 후기는 당연 올리구요 ! ^ ^ 제발 당첨되게 해주세요♡ 인친님들에게도 멋진 후기로 보답하겠습니다 ♡ 제발 제발 당첨되길 ㅎ ㅎ
+인친님같이참여해요 @Sssssshe1</t>
         </is>
       </c>
     </row>
@@ -1851,12 +1890,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ultrachch</t>
+          <t>tata__topi</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>우리학교 보물1호: 옥상텃밭 aeterno #비바샘 #vivasam #VISANG #비바교육 #우리학교보물1호 #비바샘이벤트 #EVENT</t>
+          <t>와이즈캠프 팔로우하자❤️ 메타인지 키워주는 초등 스마트학습 프로그램이래 ~~ ^^ 같이 ㄱㄱ @hi_hello_2022 @yuki._.ruki @hga1_67 @bboya119 @220530b</t>
         </is>
       </c>
     </row>
@@ -1866,14 +1905,13 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jgarden_diary</t>
+          <t>yjyj1013</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CgbSDx8B7Cu/?igshid=YmMyMTA2M2Y=
-우리 학교의 보물은 각양각색 멋진 색을 가진 우리반 아이들입니다💚🫰
-비바쌤 아이디:jw3402</t>
+          <t>🌈 #와이즈캠프 같이 팔로우 하장!! 메타인지 키워주는 초등 스마트 학습 프로그램 굿굿~❤
+@herome8307 @kwon_5308 @perkyhm8305 @soong_75 @blovek8 @58_hsj ( 。◕‿◕ 。)</t>
         </is>
       </c>
     </row>
@@ -1883,12 +1921,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>h.jin1210</t>
+          <t>skacjfrl</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>* 우리학교보물은 바로 학교의 다양한소식과 활동과 학생들의 모습을 볼수있는 도담도담벼락!!! https://www.instagram.com/p/CgLo25BFygD/?igshid=YmMyMTA2M2Y= 비바샘 아이디는 pure1210입니다~!!</t>
+          <t>- 참여합니다. 언제나 사랑으로 인친님들 함께해요 ^^
+@no_way33541 @doflzk99 @jclock47 @h.sangyeon @good398678 @skdoak77
+https://www.instagram.com/p/ChBmdOWLC-m/?utm_source=ig_web_copy_link</t>
         </is>
       </c>
     </row>
@@ -1898,12 +1938,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>h.jin1210</t>
+          <t>yeonug6166</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CgLo25BFygD/?igshid=YmMyMTA2M2Y=</t>
+          <t>와이즈 캠프 응원합니다. 팔로잉,좋아요 완료</t>
         </is>
       </c>
     </row>
@@ -1913,12 +1953,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>dayofpeace1</t>
+          <t>wjdgml098</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>이벤트 참여했습니다. dayofpeace1</t>
+          <t>배운 것을 직접 쓰고 설명하여 메타인지 능력을 키우는 학습 방법 #와이즈캠프
+친구들에게...소문내고.. 추천도 하고..~~!!! 널리 알리고~ 함께 할게요
+팔로우♥하고 참여해요~ 좋은정보 많이 알아가고 즐거운 소통 함께 나눌게요..^^ 앞으로도 많은 분들에게 아낌없는 사랑과 관심을 받을수있기를 진심으로 바라겠습니다 ~~ 새소식,다양한 소식!! 더욱더...기대 할게요~~ 따뜻하고 행복한^^...즐거움 가득한 곳 되세요!!! ♬ 자주자주 방문하겠습니다!! 주위 친구들에게도 소문 많이 낼게요…^^
+@chltjsgml111 @duatpfk660 @rnglfhg256 @dflgihg98 @wjdxor78 @hwasun911 @dltjd890 @miwjd987 @hwayoung59 ~ 함께해요!!!~♫♫ ❤💛💚💙</t>
         </is>
       </c>
     </row>
@@ -1928,12 +1971,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>gaga0497</t>
+          <t>silverzero7128</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CgIlMtJvAV6/?igshid=YmMyMTA2M2Y=</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이래 @mineagi00</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1986,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>gaga0497</t>
+          <t>hyun._.zin</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>@gaga0497 우리학교의 보물은 급식입니다...ㅎㅎㅎ아이들도 모두 동의했어요. 맛있는 급식은 우리의 힘.!!!</t>
+          <t>메타인지력을 길러주는 최첨단 학습 프로그램 와이즈 캠프!🧡 @dlguswls15</t>
         </is>
       </c>
     </row>
@@ -1958,12 +2001,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>wooshin_kwak</t>
+          <t>dangdangyirang</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>새벽6시30분에 출근하시어 3년째 일찍 오는 학생들의 열체크를 해주시고 힘나는 모든 이벤드에 앞장서시는 우리학교 보물1호 한oo선생님!!! 아이디 yess99</t>
+          <t>@junijurang @irrisys @cki3736 메타인지를 키워주는 초등 스마트 학습 프로그램 #와이즈캠프 에 대해 알고 싶으면 여기로 come on!</t>
         </is>
       </c>
     </row>
@@ -1973,12 +2016,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jinhyeong25</t>
+          <t>kyp26150017</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>우리학교보물1호 잔디공연장 beautyboy1</t>
+          <t>메타인지 키워주는 스마트 학습 프로그램 !!! @angelkjk79 @banana_9978 @seonyeong6069</t>
         </is>
       </c>
     </row>
@@ -1988,12 +2031,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>minseo090902</t>
+          <t>hyojoo07096416</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>비바샘아이디kms525y &lt;우리학교보물1호&gt; 우리학교 대표 꽃 보라와 핑크의 조화 보면 마음이 힐링되어요 #VISANG #비상교육 #비바샘 #vivasam #우리학교보물1호 #비바샘이벤트 #EVENT</t>
+          <t>초등 스마트 학습 프로그램~와이즈캠프❤️❤️ @hwang.hyeongseok</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2046,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>leetaeguem</t>
+          <t>u___yuuy</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>❤️비바샘 아이디: mmgentle 👏우리 학교의 보물 1호는 멋진 학교 전경과 학생들입니다😍</t>
+          <t>와이즈캠프 팔로우하자@archive @molit.g @OEeema_ @sl_sle23</t>
         </is>
       </c>
     </row>
@@ -2018,12 +2061,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>dmswjd34</t>
+          <t>huhj4120</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>snowman385</t>
+          <t>와이즈캠프 인스타그램 팔로우하자~~ @ayinsarang @simijini</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2076,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bagoghyi45</t>
+          <t>heeyeon_park9in</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>우리학교의보물1호는선생님과학생이함께성장하는것입니다.생동감이있는연못입니다.활기찬선생님.밝게빛나는우리어린이들입니다.</t>
+          <t>#초등교육 #비상교육 에는 #와이즈캠프 이징~!
+@hhs6750 @housegogo
+@orokl9
+@today3300
+@hiro_hana23</t>
         </is>
       </c>
     </row>
@@ -2048,12 +2095,13 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>hihee.p</t>
+          <t>siinlove0209</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>보물1호 사랑스러운 학생들, 2호 열정적인 선생님 입니다. 비바샘 id는 yssjpsh 입니다.</t>
+          <t>비상교육 와이즈캠프 ! 나도 이번에 알게됐는데 메타학습의 시작이래 ^^ 우리아이도 얼마안남았어 초등...함께 알아보자!! @guswjdsh90
+@g600gqi @ssang78m @the_s_tin59</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2111,13 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>pinkoo.0130</t>
+          <t>apple4558</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>멋진조경이사시사철아름다운우리학교😍파주에있는소규모학교인데학교뷰가너무멋지다구요❤️</t>
+          <t>맞춤형 밀착관리와 메타인지 높이는 학습법 메타학습의 시작 와이즈캠프 초등 스마트 학습 프로그램 이야 메타학습의 시작 와이즈 캠프와 함께하자 . 💕
+@youngkuk0805 @cgl0628 @ceongwangim @goodtime1335 @chanho_73</t>
         </is>
       </c>
     </row>
@@ -2078,12 +2127,13 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>pinkoo.0130</t>
+          <t>namasca0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>@pinkoo.0130 비바샘아이디cutemina30</t>
+          <t>팔로우 완료/ 메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 @jisookchol @lmj770921 @soonsu85 @hyeonmi6787
+비상교육의 메타학습연구소 믿고 함께하자~!</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2143,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>dobbyseo</t>
+          <t>jangsohyi8</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>우리학교 보물 1호 계절별 꽃 화단🌺🌻🌼 syk0912</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 혼자 알기 아까운 정보네요 ~ !🌿
+지금 당장, 롸잇나우! 팔로우 꾹꾹 누르고 추천 꼭꼭!!.💗🌟
+@ongoles99 @leejubok @kssoon800 @ad_happy_na @eunsug.song @s1garden
+소식 함께하며 좋은 기회 놓치지 마세요! ~~~⭐️</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2161,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>joyi3141</t>
+          <t>leejubok</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>우리학교~~보물은 학생회 밴드부 댄스부보다 더 귀한 보물은 나서지않아도 조용히 묵묵히 자신의 열정을 남기는 아이들♥ 열정적인 학생들^^ 아이디yi1228 좋은이벤트 굿 입니데이~~^^👏😍🔥👏</t>
+          <t>@jangsohyi8 😍</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2176,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ohyeahola</t>
+          <t>janghegene</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>우리학교 보물 1호는 오순도순 함께 커가는 우리반 학생들입니다❣️❣️❣️ 아이디: asdjkl</t>
+          <t>와이즈캠프 소개해요 @junjinhj081</t>
         </is>
       </c>
     </row>
@@ -2138,12 +2191,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>seon_k_ha</t>
+          <t>bin184</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>비바샘 아이디는 sk7212 입니다. 우리 학교의 보물 1호는 열심히 근무하시는 여러 선생님들 중 예술공감터를 운영하시는 땡땡땡 선생님입니다.^^</t>
+          <t>@pomato00 @h____a.na 와이즈캠프와 함께 하자^^ 메타인지를 키워주는 초등 스마트학습 프로그램이야!</t>
         </is>
       </c>
     </row>
@@ -2153,12 +2206,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>catharinayou</t>
+          <t>mings_954</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>비바람 샘메리 워드 #비바샘</t>
+          <t>메타인지 키워줘서 학습능력 돕는 와이즈캠프 알고있니?? @92._.woo @songsongeee @902nam @osmckims @7d._.kim</t>
         </is>
       </c>
     </row>
@@ -2168,12 +2221,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>hi.hyunaa</t>
+          <t>hiro_hana23</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>@new.krystal</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 ! @yiromiya 🤍 @ridada2837 🤍@jung1991_love 🤍 소개할께 ʕ•̫͡•ʔ♡*:.✧</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2236,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>saembee</t>
+          <t>imsooyeony</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>우리학교 상징</t>
+          <t>와티즈캠프 아직도몰라? 메타인지를 키워주는 초등 스마트학습 프로그램이야!🔥🔥 @nimu_s21</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2251,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>saembee</t>
+          <t>ud.leee</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>우리학교 상징나무</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 한 번 봐봐❤️ #팔로우완료 #좋아요완료 @hayime88 @5peyeum @jungwooh2010</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2266,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>warm_house_together</t>
+          <t>zzung_loves</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>아름다운 학교풍경이예요 아이디 skypeh 입니다</t>
+          <t>팔로우 💗 메타인지 학습법 궁금하지? 궁금하면 #와이즈캠프 로 가요~~ @kjh123611 @janettciampa @a.l.geiselhart @cshoon3136 @ssoiin_eun_ @kmk___01 @jeyunhae @il_yong_jig  @hnna0490</t>
         </is>
       </c>
     </row>
@@ -2228,12 +2281,13 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2020icarus</t>
+          <t>fcl20d</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>우리학교 보물1호 기술실❤️ icarus82660</t>
+          <t>초등 스마트학습은 #와이즈캠프!!
+@handrake11 @fl40d @jangsub2021</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2297,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ezio8439</t>
+          <t>tradenoz</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>😍</t>
+          <t>#와이즈캠프 #인스타그램 #팔로우 해요! ❤️ 앞으로 인스타그램 채널을 통해 차별화된 내용의 영양가 만점에 다양한 정보제공으로 공감을 위한 돌다리를 하나 하나 놓듯이 #와이즈캠프의 소통메신저가 되기를 기대하고 응원합니다!!!!
+@wintzone
+@fary009
+@yongmanheo
+특허로 검증 완료! 배운 것을 직접 쓰고 설명하여 메타인지 능력을 키우는 학습 방법 프로그램이야~~</t>
         </is>
       </c>
     </row>
@@ -2258,12 +2316,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>dolcongssam</t>
+          <t>wintzone</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1학기를 되돌아보며 우리학교보물이 뭐가 있을지 곰곰히 생각해보는 기회가 되었습니다!! 좋은 기회주셔서 감사합니다 ☺️ ID: clair01</t>
+          <t>@tradenoz 😂</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2331,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>j._.hwan.1990</t>
+          <t>rina123kim</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>순수..는 아니지만 귀엽고 해맑은 케미맞는 선생님들을 보물이라 생각해봅니다..ㅋㅋ 아이디 juhwan901207입니다!!</t>
+          <t>특허로 검증 완료! 배운 것을 직접 쓰고 설명하여 메타인지 능력을 키우는 #와이즈캠프 우리 아이 공부 근육 확 키워 줄 초등 스마트학습 프로그램으로 스마트한 우리 아이 키워보자
+@qqqwwweee119 @kun_nuk.310 @1197_huny
+@kun_185ou @love.ssong1004 @salala199</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2348,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>yungyeongseog44</t>
+          <t>love.ssong1004</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>아이들입니다</t>
+          <t>#와이즈캠프 와 우리아이 창의력을 쑥쑥~ @facegil2 @happy_ddoli 함께행 ❤️</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2363,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>gimtaejeong1700</t>
+          <t>edisun035</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>우리학교 보물은 학생들이 직접 심고 키운 식물들 입니다~^^👏👏👏아이디 ktjsoul</t>
+          <t>나 대신 우리 아이 성적 관리해주는 와이즈캠프!!! @edisun1206 @enjoy_windy @dongs.mom @lovely_yena_mom</t>
         </is>
       </c>
     </row>
@@ -2318,12 +2378,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>bbokbbuin</t>
+          <t>yoom_yoom_yoom</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>@bbokbbuin 울학교 보물은 학생들의 작품이다</t>
+          <t>초등 스마트학습은 핫한 #와이즈캠프 🙌🙌 함께해🙌😍@vaho_0707 @eunjeong9208 @limashtray @suelee0704 @moun_s9</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2393,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>walnut_travel</t>
+          <t>dodeoghu</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>독도에 진심인 우리 학교를 자랑합니다.🌄 비바샘 아이디 kming05</t>
+          <t>메타인지를 키워주는 초등 학습 프로그램 정말 좋아요!! @dongho8093</t>
         </is>
       </c>
     </row>
@@ -2348,12 +2408,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jina_bless_you</t>
+          <t>ggangmj891226</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>우리학교의 보물1호는 아이들이 정성스럽게 가꾸는 텃밭입니다 싱그럽게 자라는 채소들을 보면 날마다 무럭무럭 자라나는 우리 아이들 같아요 아이디:jina_bless_you</t>
+          <t>#기초부터튼튼하게 #와이즈캠프로 #기초부터튼튼하게 ❤️ @vn_ming @kangmin1226 @minglove1129 @lovemi8168 @justmi0110
+@ggangmj891226
+@ming1.226
+@zzangmin2022
+@jjin.1229
+@study77777</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2428,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jina_bless_you</t>
+          <t>kurukuja</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>@jina_bless_you 인증 링크입니다 https://www.instagram.com/p/CfsNOi5PgHF/?igshid=YmMyMTA2M2Y=</t>
+          <t>메타인지 키워주는 스마트 학습 프로그램 와이즈캠프 😎🖤 @p_sosohyuni @lovelymyung2 @rarachuxx @sizuzulook</t>
         </is>
       </c>
     </row>
@@ -2378,12 +2443,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jiji_tree</t>
+          <t>wowoch</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>아침마다 노래를 틀어주는 방송반 친구들. 매일 아침 인사를 해주시는 교장교감 선생님. 늘 영양 가득 맛있는 급식. 항상 밝게 인사하는 아이들. 즐거운 목소리가 가득한 우리 반. 아이디 : jiji_tree</t>
+          <t>#팔로우완료 !! #와이즈캠프 팔로우하고 소통합시다아 ㅎㅎㅎ @ckc052970 @sangjin.yea</t>
         </is>
       </c>
     </row>
@@ -2393,12 +2458,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>saembee</t>
+          <t>ksh._.1207</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>우리학교 보물은</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 를 소개합니다 #참여완료</t>
         </is>
       </c>
     </row>
@@ -2408,12 +2473,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>hy__ch__lee</t>
+          <t>fil.jung.5</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>우리학교 보물 1호는 이매누리관과 그곳에서 즐겁게 활동하는 생명력 넘치는 어여쁜 학생들입니다. 비바샘 아이디는 hyunchaelee1입니다. 좋은 이벤트 감사합니다. :)</t>
+          <t>학습의 시작은 와이즈캠프지!
+지금까지 좋은 모습 감사하며
+2022년에는 더 발전하기를 _+
+공유완료_+
+@gogojoo7 @dambimun @ramiae9 @f4.zzz
+@lmj770921 @iii158cm @jiann_y3635 @bonsumai</t>
         </is>
       </c>
     </row>
@@ -2423,13 +2493,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>nydylove</t>
+          <t>cristianwhang</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>전국전국에서 1,2위를 한 아이들과 교사가 함께 만들어가는 아름다운 정원을 소개합니다. https://www.instagram.com/p/CfoFP07pnnq/?igshid=YmMyMTA2M2Y=
-비바샘아이디:lovejelly84</t>
+          <t>#와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램이야!
+☑️ 팔로우, 좋아요 완료🤟
+🤟 참여완료
+@haeshin_j @mybrazildiary @cristianwhang18</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2511,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>eomdaminaa</t>
+          <t>cristianwhang</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>우리학교 보물은 우리반 아이들이에요! 아이디는 ekals4234입니다~</t>
+          <t>☑️
+@__i__jhappyday @daily_jinaa @jsb53265267
+@sunnythink7 @gimgyeongsug8514 @e.gayoon26</t>
         </is>
       </c>
     </row>
@@ -2454,12 +2528,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>dear22kyung</t>
+          <t>sangjin.yea</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>관람예절 바르고, 호응 잘하는 우리 학교 아이들~~ dear2kyung</t>
+          <t>팔로우완료 참여완료 😍 초등생 메타인지 키워주는 스마트 학습 프로그램 함께해요 @wowoch @ckc052970 @ckck4569</t>
         </is>
       </c>
     </row>
@@ -2469,12 +2543,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>azmang2022</t>
+          <t>seungtaeg11</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>교동중학교 보물 1호 바다와 화개산위 정기가 감싸주는 학교</t>
+          <t>특허로 검증 완료된 #메타인지 소개할게😍 @hgyunam474 @djawl00</t>
         </is>
       </c>
     </row>
@@ -2484,12 +2558,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>seon_k_ha</t>
+          <t>haeshin_j</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>#VISANG #비상교육 #비바샘 #vivasam #우리학교보물1호 #비바샘이벤트 #EVENT</t>
+          <t>#와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램이야! @marcio_and_marcia @jenkim_us
+@lovely_yena_mama @asiuch205 #와이즈캠프 #비상교육 #초등교육
+#메타인지 #메타학습법 #메타인지학습법</t>
         </is>
       </c>
     </row>
@@ -2499,15 +2575,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>baggyeonghyi141</t>
+          <t>lovely_yunwoo_yeonwoo</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>baggyeonghyi141 
-비바샘아이디 toh22t
-&lt;우리 학교의 보물 1호&gt;는 놀이터에 있는 트램펄린이예용. 여기서 공중부양 놀이하면 엄청 재밌어요. 순간포착! 울반 친구가 찍은 공중부양 사진 한 컷! 
-#VISANG #비상교육 #비바샘 #vivasam #우리학교보물1호 #비바샘이벤트 #EVENT</t>
+          <t>메타인지 키워주는 #와이즈캠프#참여완료#좋아요완료#팔로우완료 @jpjyyu</t>
         </is>
       </c>
     </row>
@@ -2517,12 +2590,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>215hansol</t>
+          <t>suk.kim.792</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CfnHUy5Po4R/?igshid=YmMyMTA2M2Y= 비바샘 계정은 taro106 입니다^^</t>
+          <t>기초부터 시작은 와이즈캠프지b
+향기 가득한 꽃길만 걷기를 기원할게용 ;)
+2022년 대박 나즈아 ;)
+@gogojoo7 @jkh73129 @ramiae9 @lmj770921 @bonsumai</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2608,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>sukwoanpark</t>
+          <t>jyjy03</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>참여 완료했습니다! 반송여자중학교의 자랑은 학생들의 창의력을 신장시키는 다양한 행사와 이런 행사에 매번 열심히 최선을 다해서 참여하는 꿈이 많은 아이들, 그리고 행사를 위해 노력해주시는 훌륭한 선생님들입니다^^ 비바샘아이디(ssukbbak)</t>
+          <t>와이즈캠프 소개해 @navi_jy @poppyouy</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2623,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>memory93090</t>
+          <t>poppyouy</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>인사성 밝은 아이들, 시설좋은학교, memory930</t>
+          <t>와이즈캠프 소개해요 @sjjss0313</t>
         </is>
       </c>
     </row>
@@ -2562,12 +2638,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>participate_in_event</t>
+          <t>navi_jy</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>미우나고우나 우리 학교의 보물들을 게시해보았습니다. 비바샘 인스타그램 팔로우, 페이스북 좋아요 완료. 저의 비바샘 아이디는 kohj1125입니다. 감사합니다👏</t>
+          <t>와이즈캠프 소개해요 @jhyinj7000</t>
         </is>
       </c>
     </row>
@@ -2577,12 +2653,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>school_diary2022</t>
+          <t>boni_soso</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>@oo._.do @shyun._.1022 @lusyjiyxxns @sy._.e3o @chohee.x0 @a._.d._.c._.b 우리학교의 보물 뭐가 있을까~????🔥</t>
+          <t>메타인지력을 키워주는 학생들에게 꼭 필요한 교육 프로그램이야💙 @haru_yenny</t>
         </is>
       </c>
     </row>
@@ -2592,12 +2668,18 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>oo._.do</t>
+          <t>aagikyounge</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>@school_diary2022 저여</t>
+          <t>7세니까 우리 초등대비하자^^
+메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프로❤️❤️
+🙌 🤚🙌🙌🙌 ⸜(*ˊᗜˋ*)⸝
+#응원합니다🙌🏻💕
+#좋아요 #기대기대
+#오우예💃 #사랑입니다❤️
+@_aeun_kyo_ @l_jh_pro___ @bebesr_0328 @_ain__kyeong_ @yofon_0823 @poincho_0511</t>
         </is>
       </c>
     </row>
@@ -2607,12 +2689,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sa.n_g.hyun</t>
+          <t>nuri_chuu</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>@school_diary2022 변상수선생님❤️</t>
+          <t>와이즈캠프로 초등 메타인지를 탄탄하게 시작할 수 있다굿~~👏👏 ㅎㅅㅎ 친규야 우리 같이 참여해보쟈!! 이벤트 소식 주변에 공유해조~~~! 🌸💕 @z__soooou</t>
         </is>
       </c>
     </row>
@@ -2622,12 +2704,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>co.hxx</t>
+          <t>happyhayungpp</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>@school_diary2022 없어요없어요</t>
+          <t>즐겁게 공부하는 처음 학습프로그램 !! 함께해요 👏👏팔로우완료 좋아요완료 ❤️❤️이웃님들도 함께해요 😍@oyeongae2 @young28212 @majpal182 @cjcouncil_official @xnjke30</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2719,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>baggyeonghyi141</t>
+          <t>kms4112323</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>아이디toh22t &lt;우리 학교의 보물 1호&gt;는 놀이터에 있는 트램펄린이예용. 여기서 공중부양 놀이하면 엄청 재밌어요. 순산포착! 공중부양 사진 한 컷! #VISANG #비상교육 #비바샘 #vivasam #비바샘이벤트</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램인 와이즈캠프를 소개합니다. @suyeon4253 @anjihye5088 @dsdsas2152 @k_hgnf_un @stagno2813</t>
         </is>
       </c>
     </row>
@@ -2652,12 +2734,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>chosun84</t>
+          <t>min75422</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>sylcs1024 아름다운 아이들</t>
+          <t>#와이즈캠프 😍😍 응원할께요 ❤❤  좋은이벤트 감사합니다 💗💗  게시글 피드 잘보고갑니다  💌 건강조심하시고 으샤으샤 힘내세요 🥰🥰🥰  앞으로 소통도하며  열심히 응원하겠습니다   🌷🌷  이벤트 소식 공유합니다 💕💕  많은 관심과  사랑받아 승승장구하시길 바래요 🌸🌸   언제나 행운 🍀🍀 가득하시길 바래요 🧚‍♀️🧚‍♀️🧚‍♀️   인친님들께 널리 널리 알리고 소문낼께요  🍒🍒🍒@qkrtndm @tm_ty_mom @oumme__ @bagmigyeong9304 @minim_ini7656 @nymphe_83 @vanbul77 @ssm361 @_j.unni @laon_vip</t>
         </is>
       </c>
     </row>
@@ -2667,12 +2749,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>blooming_anko</t>
+          <t>min75422</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>접니다</t>
+          <t>인친님들 함께해요 ❤️💚💛❤️💚💛@bk_0527 @bvxzz7 @gweongyeongsun86 @gimjiseon617 @lovely_yena_mama @lee51272020 @minmoo42 @ghj_2322 @ppcssk__ @616jin1212 😮😮😮</t>
         </is>
       </c>
     </row>
@@ -2682,12 +2764,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>jullry</t>
+          <t>616jin1212</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>울학교 보물은 학생들의 공연모습입니다👏👏👏 아이디: offense</t>
+          <t>메타인지를 키워주는 초등스마트학습 프로그램 #와이즈캠프 소문내요. @junni_0609 @jungmis_s @seonyeong6069 @joys_0621 @nowadays8869 @kkyoung1982 @iso_810811 @boyoung462 @im318604 @y_j_mam</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2779,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>nicejang3554</t>
+          <t>goodskill99</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>우리 학교의 전경가 보물 1호 사진을 함께 담아 인스타그램에 탑재했어요. 역시 학교체육관 앞 운동장에서 비행기를 날려보는 우리 반 친구들이 최고네요. 비바샘 아이디: jang3554</t>
+          <t>기분좋은 일들과 반가운 소식들이 날아와 이 순간을 빛내는 그런 기적을 바라며, 이렇게 함께 하는 순간을 감사하고 좋은 일들이 많아졌으면 좋겠습니다. ♥♥♥ @hanskybest99, @zang_luck88, @almond_pepe79, @silvertroy, @774_hfqdju, @xbiebvsx719, @vzqsow147, @dsiunuxywk, @p.k.h0103, @yaru_insta님 초대해요 스마트기기 전용 학습기기를 통해서 즐겁고 재미있는 학습을 할 수 있는 와이즈캠프! 아이들과 함께 특별한 교육 더해보세요 ^^</t>
         </is>
       </c>
     </row>
@@ -2712,12 +2794,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>sungin.c</t>
+          <t>vitamin.hyosung</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>공부가 재미있고 즐거워지는 학습 환경 속에서 우리 아이들이 별난 자신감으로 세상을 뒤집는 기발한 리더로 성장하도록 함께합니다! 메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 #비상교육 함께하며 응원합니다👏👏 @arie_x_x @imsujeong972 @juri82021 @jihye2297 @ri38694 @sweetpotato_yelo @sun21320 @seok4044 @suhee_im @zlazla1111</t>
         </is>
       </c>
     </row>
@@ -2727,12 +2809,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>sungin.c</t>
+          <t>se_naday</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>비바샘 아이디: yah001. 초록빛 가득한 산자락이 보이는 넓은 운동장.</t>
+          <t>@todaiz 메타인지를 키워준대 초등 스마트 학습 프로그램 요즘 초딩들은 좋겟다</t>
         </is>
       </c>
     </row>
@@ -2742,12 +2824,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>kimeunhye_grace</t>
+          <t>iso_810811</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>비바샘 아이디 ksm9070</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 최고👍
+팔로우, 좋아요, 참여완료🖐
+이벤트 열어 주셔서 너무 감사드립니다🙏
+많은분들이 소식 알 수 있도록 소문 많이 낼께요😁
+앞으로 계속 소통하며 지내요❤
+우리 친구들 같이 팔로우 하고 이벤트 참여하자😉
+@eunseon.shin @616jin1212
+@rabbitrin0118 @_e.hee__
+@minmoo42 @luck_yebeulri
+@jiung3634 @soonguk44
+@honglove8074 @boyoung_0218</t>
         </is>
       </c>
     </row>
@@ -2757,12 +2849,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>deogins</t>
+          <t>note09_go56</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>보물 1호: 당연히 우리반 아이들입니다. 사랑해♥ 애들아~~</t>
+          <t>개뼈노트로 배운 내용을 구조화하고
+직접 설명까지 하니
+수학 공부가 더 이상 어렵지 않게 만들어줘 ~~ 10일 체험해보자 ~ ^^&amp;
+🌞 @rnaszz78 @street_srt98
+@kivivi577 🌞</t>
         </is>
       </c>
     </row>
@@ -2772,12 +2868,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>deogins</t>
+          <t>uji_yya88</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>@deogins lidium1</t>
+          <t>상위 0.1%의 수학능력 !!!
+메타인지를 통해 메타학습연구소에서 교육중이라니 우리 아이도 천재로 만들어 보자 ~
+@hhhhappy333
+@hanul668_ju7 @ykyh3366 🍀</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2886,29 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>myeongcheol77</t>
+          <t>soonguk44</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>학교의 보물은 씐나게 뛰어노는 아이들 학교의 주인은 학생이니. 당연히 보물도 학생입니다.</t>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 우리 #키즈맘 친구들에게 소개합니다❤️
+좋은 이벤트 너무 감사드리며 덕분에 지친 회사생활과 육아에 힘을 얻습니다😊
+늘 승승장구하시길 항상 함께하며 응원하겠습니다🙌
+앞으로도 계속 우리 소통해요😆
+인친님들께 공유해드리고 갈께요😉
+우리 모두 행복합시다😍
+✔ 팔로우 완료
+✔ 좋아요 완료
+@lovely_sunny84
+@honglove8074
+@sun2_midal
+@lovely_raina_kim
+@yuan__love__
+@tjsldhkwnsl84
+@h2k0329
+@ygim8127
+@iso_810811
+@sjpark1009</t>
         </is>
       </c>
     </row>
@@ -2802,12 +2918,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>park_sun_ji76</t>
+          <t>geo_1225</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>park656412 학교이름간판 순수한아이들 예쁜화분 체험활동 급식 신아중보물이 너무 많습니다^^</t>
+          <t>요즘 시대에 딱 맞는 메타버스 신세계 교육! 요즘 어머니들 이거 하려고 난리도 아니래! @dmfu_10 @wkddi0 @sj_0121_ ❤</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2933,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>sookvely007</t>
+          <t>sugmun9</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>dknyl007 ❤️</t>
+          <t>메타학습의 스마트교육 와이즈캠프와 함께👏👏👏❤️❤️</t>
         </is>
       </c>
     </row>
@@ -2832,12 +2948,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>gohuiyeong007</t>
+          <t>takemist_u</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>8시 20분부터 9시까지 아침마다 교문(정문) 앞에 나와서 아이들에게 인사하며 손을 흔들어 주셔서 아이들의 사랑을 독차지하시는 흰색 줄무늬 양복을 즐겨 입으시는 교장선생님이 우리 학교 보물 1호입니다.</t>
+          <t>자기주도학습 메타학습 #와이즈캠프 언제나 응원합니다 💐@black_sheep.q @hanbly</t>
         </is>
       </c>
     </row>
@@ -2847,12 +2963,13 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>hjb7677</t>
+          <t>b.suk31</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>hjb7677👏</t>
+          <t>업계유일 특허검증 학습법 초등교육은 와이즈캠프와 함께 아니겠습니까 !!! 형님 누님 동생 친구여러분 우리 와이즈캠프 팔로우하고 자녀교육을 위해 와이즈캠프와 함께 친해집시다 👏👏👏👏👏👏 👏👏👏👏👏 #와이즈캠프 #비상교육 #초등교육 #메타인지 #메타학습법 #메타인지학습법 @freerosy_ @hongch1l2
+@seoyoung_army_ @_aa_rriin @gimhayeon6182 @sooo._.sin</t>
         </is>
       </c>
     </row>
@@ -2862,12 +2979,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>soyeon4892</t>
+          <t>kbangel02</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>아이들이죠imsomeone</t>
+          <t>메타학습의 시작 #비상교육 #와이즈캠프 와 함께해요🙆‍♀️💕 @jomiseon7445 @haaapoom @geunugjeon @say512200 @ming_hanharu @1004helloo1004</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2994,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>wiwi89150</t>
+          <t>say512200</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>비바샘 😍ㄱ아이디 wiwi8915</t>
+          <t>#와이즈캠프 팔로우 완료
+더욱 더 사랑 받으시고 자주 소통하고 힘찬 한 해 보내자구요 !
+행복한 소식, 웃음꽃 피우는 날만 가득하길 바라겠습니다 💗 @dltndus0825 @ujiho83 @sysy1956 @gwagjiyu7 @oooooop78 @red79_79 @yogini0216 메타인지를 키워주는 초등 스마트학습 프로그램, 와이즈캠프 소개해요 ^^</t>
         </is>
       </c>
     </row>
@@ -2892,12 +3011,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>dagun1320</t>
+          <t>boyoung462</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>아이들❤️</t>
+          <t>메타인지를.키워주는.초등.스마트학습.프로그램으로 #와이즈캠프 소개합니다♡@eunchan1417 @shin369999 @doddri11 @616jin1212 @jjjuuu777 @jjjkkee00 @rosegg35_ 함께해요 ♡팔로우완료요 ^^</t>
         </is>
       </c>
     </row>
@@ -2907,12 +3026,13 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>skadlftn</t>
+          <t>q7lzo8</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>비바샘 아이디 skadlftn</t>
+          <t>메타학습은 어디서? 와이즈캠프에서!! ❤️‍🔥
+@eunji0424__ @hye_ji0424 @hj_mooon</t>
         </is>
       </c>
     </row>
@@ -2922,12 +3042,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>vivasam_official</t>
+          <t>kmyoungil12396</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>💙</t>
+          <t>와이즈캠프 소개합니다 👏👏 @bunyeongy @bkbkbabo7 @gainsarang88</t>
         </is>
       </c>
     </row>
@@ -2937,12 +3057,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>vivasam_official</t>
+          <t>lovely_sunny84</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>#초등수업 #선생님사이트 #교사자료 #초등학교교사 #중학교교사 #고등학교교사 #1학년담임 #2학년담임 #3학년담임 #4학년담임 #5학년담임 #6학년담임 #초등교실 #교사스타그램 #학급운영 #교사생활 #교사라이프 #쌤스타그램 #선생님이벤트 #교사이벤트</t>
+          <t>참여완료◇ #와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램이야~! 팔로우이벤트 소식 널리소문낼게요~^^ 앞으로도 승승장구하시고 함께 소통하면서 지내요~♡ 무더위로 짜증나는날이 많지만 여름 보양식 드시고 힘내세요!! 좋은하루 보내세요😍 항상 응원합니다❤️ 즐거운 소식 함께해요~♡ @sook_0702ok @ibt.chamath @seo_jin_ho4579 @bagjaeeun4066 @seojin._.prince_ @gree_nmom @popa_1021</t>
         </is>
       </c>
     </row>
@@ -2952,12 +3072,5060 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>saembee</t>
+          <t>lovely_sunny84</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>@vivasam_official</t>
+          <t>즐거운 소식 함께해요~♡ @eunju.kang.543 @jyj8213 @moon251400 @cutie1021oo @dudrud2430 @jinho4579 @jeongim6027 @lovely_saebom</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>lovely_sunny84</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>즐거운 소식 함께해요~♡ @333.dadungmom @lovelove_hayun @jjiwoo.0303 @sch_sch_wangja @bagsojeong5680 @kwon2439 @lovely_babies_u @j.king0402</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>dreamnamu88</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>메타학습, 메타인지를 키우기 위해서는 와이즈캠프가 딱이지~ @eounhyung_lee</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>shin369999</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>꾸준히 사랑받는 #와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램이야〰️ @minjija1367
+@imeunhwa7821
+@limja_1117 @leesangchul1978
+@sanghun_mo
+@___aquair___ @kimgyojin777
+@nymphe_83
+@eunok.1216
+@boyoung462</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>eunju6768</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 #와이즈캠프 소개해요😍#참여완료 ❤️ 행복한 일만 가득하길 바래요❤️많은 분들이 공감하고 소통하는 공간이 되응원합니다❣❣💜마음 까지 따뜻해 지는 이벤트 소소한 일상속의 즐거움이 예요 ~우리 올해도  함께해요❤ 적극 소문낼께요🙌
+@kukchg0402 @loveissom
+@lovelygyeom_2 @namo990912
+@d0.ove @lovely_saebom
+@pretty20180718 @lovely_yoonsisters
+@love_home12345 @hi_medenagan</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>yeoni_0425</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>함께참여해요💓2💓 @mango.ne.zip @jeehey23 @lovely_raina_kim @k.s.j1221 @hajintop @mkyoung486 @hi__seojin @mi.yuui @eunju6768</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>yeoni_0425</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>함께참여해요💓4💓 @luckyday_log @ygim8127 @eunhwaim26 @y.min62 @padakpadakpadak @aebeulri @jkjk6q @yasbe1227 @a_seong_mo</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>yeoni_0425</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>함께참여해요💓5💓@lhyunjoo75 @bokbok0425 @lovely_sunny84 @like0503love @sj0523_sa0401 @eunwo__o @yeoni.e @sejeong900 @joo_young_36</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>yeoni_0425</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>함께참여해요💓6💓 @kyungrim_h @yuan__love__ @ssonghee1004 @7_7ssera @twoyun_mom486 @tmdgml940701 @h_nyong071105 @iminjeong8545 @hello_beenbeen</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>minjija1367</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>함께해요😎✌
+@punykim @vanbul77
+@j.unni_ @catherine_0504
+@vitna98
+@sch_sch_wangja
+@jinhee3368
+@tm_ty_mom @eui_sister_love</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>minjija1367</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>함께해요😎✌
+@mono.7182 @ygim8127
+@eunchan1417
+@jeong8780
+@kyoung_wp
+@khk2160 @616jin1212
+@bagmigyeong9304</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>minjija1367</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>함께해요😎✌
+@min75422 @jang_sion_angel
+@eecocoee
+@ssm361
+@kkinn_1013 @333.dadungmom @green_rose_ya @bonghee7979
+@jsb53265267</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>minjija1367</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>함께해요😎✌
+@gimgim6250 @sinna4885 @weonhyeongjun949 @nana0801love @lovely_yena_mama @bimhappy_0918 @limmmmmmmming</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>99ggyyy</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이래! 너희 조카한테 딱일듯! @shimmya2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>mono.7182</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>참여완료 함께해요🙂
+@dada.7705 @hong__za
+@yolo._.n_sing  @ming772020 @sukskm1004 @wjwkeh
+@eunju6768  @y.min62   @yoonju.jeon @woolovemom</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>gmlwjd8685</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>🌈#와이즈캠프 #비상교육 #초등교육 #메타인지 #메타학습법 #메타인지학습법 메타인지를 키워주는 초등 스마트학습 프로그램이야! 기분좋은이벤트 너무감사합니다 언제나응원합니다 😍❤️ 팔로우꾸욱 ✅️ 좋아요꾸욱 ✅️ 친구소환 ✅️ 참여완료 ✅️ 함께해요 ✅️ 친구들에게 동네방네 널리널리 소문낼께요 📣📣📣📣📣 @jhyeon4423 @peachlike1004 @junni_0609 @dada.7705 @dotori_kj @imeunhwa7821 @limja_1117 @ygim8127 @cjdgnsdhkd @gimjiseon617</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>gmlwjd8685</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>@happyminjeong77 @hyeran7512__ @hbern88 @herostop12 @hyejin9008 @jma09200120 @jaeeun3377 @jungmis_s @laon_vip @prizia86</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>linenisu</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>와이즈 캠프 팔로우 완료예요 🥰 @urabi21</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>imeunhwa7821</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 응원합니다 참여완료 @gjdlsdk @shin369999 @yunhui_4551 @yoom_yoom_yoom @jeonjeongweon57 @min75422 @mi.yuui @mono.7182 @jungmis_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>eunji0424__</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>와이즈캠프는 메타인지를 키워주는 초등 스마트학습 프로그램이래 ❤️‍🔥
+@q7lzo8 @hye_ji0424 @yugyeong519</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>daun8088</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>친구들아, #와이즈캠프 소식 알려줄께!! 🔥🔥🔥 팔로우, 좋아요 완료 _ 최근에 회사경영 악화로 실직을 해서 많이 우울한데, 당첨이 되면 기분 전환이 될 것 같네요!! 그리고 앞으로 이 채널이 더 많은 사람들에게 사랑받길 진심으로 응원합니다!!! @290700_j @lur0822</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>gjdlsdk</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>팔로우완료 😍 참여완료 😍 @lukas_hyun @lunar_greeni @gywjddl0705 @minhee_gwak @cheshim @cherrywjd @hmh19760906 @gsh121420 @taeseul__mom @psy_seh_</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>momososo.76</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>메타가 대세 메타학습의 시작은 와이즈캠프와 @kivivi577 @street_srt98 @miihee22 @dododo4226</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>taeseul__mom</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>팔로우완료 참여완료❤️ @gsh121420</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>dojun0119</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>비상교육 와이즈캠프와 함께 메타학습 시작하자~ @wonder0821</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>luck_yebeulri</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>팔로우완료 ❤️ 메타인지를 키워주는 초등스마트 학습프로그램 #와이즈캠프 소개해요👏👏👏 태양만큼이나 뜨거운 열기가 가득한 8월~🏖 #비상교육 과 함께하며 올 여름을 늘 시원하고 행복하게 지낼수 있기를, 이 뜨거움 만큼 열정도 뜨겁게 태워보시는 한달 되셨으면 해요. 활기찬 공간 널리 소문내며, 모든 날을 응원합니다
+@smile_u_vely @yeoni_0425
+@lovely_raina_kim @sanghee_0203 @yeo_eunju83 @doublehyun_oh @yueunjin_ @jh._.wonni @mango.ne.zip @lovely_saebom</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>jjh_9595</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>와이즈캠프 인스타그램 팔로우 완료! 메타인지를 키워주는 초등 스마트 학습프로그램 와이즈캠프 많이들 이용해주세요~ @songhannahhhh @byeongsugs @soonjoong @hy_mik12 함께해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>joungwoo9005</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>❤️팔로우&amp;공감 꾸욱❤️ 메타학습의 선두주자 와이즈캠프 항상 응원합니다. @greg_marco488 @rbtfvfvggv65555 @ramonadiva462021 @kwon_sakural @sabe2631 @nanjung_wandana @salon_de_dona</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>nayanayuni</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>팔로우 완료💙 와이즈캠프는 초등 메타인지 학습법이야👏 @lsh8888881212 @h____a.na @min_joung2 @jiann_y3635</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>dosiyoung77</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>비상교육 와이즈캠프와 늦기전에 메타인지 향상 시작하자! @ddddolidoli</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>brogy_p</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>와이즈캠프 함께해요
+@nuri.pupu</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>optimus2528</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>❤️ 메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프
+@jukwangk @jaju97 @start20229 @sooo.oow
+@yuho258 @no_way33541 @yun.jun883
+@alald47 @jobaksa70</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>yoonju.jeon</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>𖤐'◡'
+﹋﹋﹋﹋﹋﹋⠀⠀⠀⠀⠀
+🙇🏻‍♀️🌟하린&amp;하민이네 참여해요~♡🌟🎶♡ꔛ  ⍩⃝    𖤐👍후기도 이쁘게 정성가득가득 담아서 gogogo 준비완료.소중하게 빵빵하게 보답드릴.약속드려요~~♡♡ 후기 올릴 수 있는 행운의 기회가 온다면 너무나 너무나 감사하고 행복할것 같아요~~~♡♡👑🌟🤎참여합니다🤎화이팅👍🌟👑🤎♡우리 죠운건 함께 함께해요!!🤎 @kikikikk0330  @333.dadungmom  @siwoliiii @song.kyunghee @kyungheechae @serom333 @iyeonghun5171 @smile_u_vely @mono.7182 @minzy_zzz 우리모두 육아맘들.힘내고 힘내요♡ 그리고 같이 참여해서 즐거운 행복 같이 만들어 보아요 ^------^👍👍 ♡ꔛ  ⍩⃝   𖤐🎶♡</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>yoonju.jeon</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>𖤐'◡'
+﹋﹋﹋﹋﹋﹋⠀⠀⠀⠀⠀
+🙇🏻‍♀️🌟💕💜저두 너무나 참여 하고 싶어요💕💜🎶👍ꔛ  ⍩⃝   𖤐함께 꼭꼭 참여하고 더더욱 즐거운 하루하루 보내자구요ㅡ 꼭'◡'𖤐 오늘도 더더욱 화이팅!! 🎶 어서어서 같이 하아자♡ @kkongchi0108 @double_hah @sol_yi_sol  @lilyhk081  @gyeonghyi7548  @ygim8127 @eonjung1 @la_sam92 @ttt5753_ @dldnfl11 👍같이 죠운정보 얻고 더더욱 행복한 일도 같이 빵빵 터지자♡  제~~~발!!!♡ꔛ  𖤐🎶👍👍👀 ꔛ  ⍩⃝   𖤐🎶💚
+🍀╔╗╔╗╔╗╦╗✨
+🍀║╦║║║║║║👍
+🍀╚╝╚╝╚╝╩╝。
+🍀·····LUCK
+🍀·········to you💚</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>smile_u_vely</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 함께해요💕 #와이즈캠프 기분 좋은 이벤트 적극 공유하고 소문도 많이 내어 볼께요〰️〰️ 행운이 온다면 넘 설레이고 행복할 것 같아요:) 앞으로도 오래도록 많은 사랑 가득 받으시길 응원드립니다💪화이팅 ❤🧡💛💚💙💜
+@joo_young_36⁣⁣⠀
+@didkdudd ⠀
+@sukkyung0607⁣⁣⠀
+@luck_yebeulri⠀
+@ryujina2094⠀
+@yeoni_0425 ⁣⁣⠀
+@lovely_raina_kim⁣⁣⠀
+@sarah10144⠀
+@yoonju.jeon⁣⁣⠀
+@2yu.emo______ ⁣</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>smile_u_vely</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>#함께해요2🌺
+@jeonjeongweon57 @acorn9268
+@bobaemom_0907 @koosay1319 @4youl.mom @greenapple.ya
+@yh_ar_nh @jy_yj_js_hs @natural_kjy @mi.yuui</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>smile_u_vely</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>#함께해요3🌺
+@honglove8074 @mybrazildiary @jinhee3368 @jooyoung4395 @p.rabbit_s2 @yh_blue @saebogi1010 @luckyday_log @minzy_zzz @yeo_eunju83</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>abnkorea</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>업계유일 특허검증 학습법
+메타학습의 시작, #와이즈캠프
+@jakyung99 @__777.77 @taein_abeom @hobbang1013 @onsemero03
+❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>mybrazildiary</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램이야! #와이즈캠프 #비상교육 #초등교육
+#메타인지 #메타학습법 #메타인지학습법 @deep.blue272 @iamjoannekim @smile_u_vely
+@minzy_zzz @lee0_lee @scanty0416</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>mybrazildiary</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>🙆🏻‍♀🙆🏻‍♂
+@jaehong_zoo @y12sung
+@bud1023ch @alla.kim42
+@jenkim_us @lovely_yena_mama
+@fly_june @instar.follower
+@omni.takebus @fly_june</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>mybrazildiary</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>🙆🏻‍♀🙆🏻‍♂
+@antaegyun3 @yelem1122
+@jaehong_zoo @ryu_3681
+@bud1023ch @food.traveler.j
+@dending_6952 @s2420266
+@texaschoo @lcy___19891205</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>mybrazildiary</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>🙆🏻‍♀🙆🏻‍♂
+@mangk_is @zlzl.zzang @kdparm_ma
+@s2420266 @hattiegay_59 @eeypredss9
+@lm4o.s2 @haseungminolaf2050
+@ya_1ho @imgiljong</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>minzy_zzz</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램!! 정보와 좋은 이벤트로 마음까지 따뜻해지네요💗💗💗💗 많은 사람들에게 관심과 사랑 듬뿍 받으시고, 행복하고 즐거운 일들만 가득하시길 바랍니다❤️❤️❤️ 앞으로 더욱 발전하시길 진심으로 응원할게요💕💕💕💕💕 ❤️❤️❤️ #팔로우완료❤️ #좋아요완료🌱 #함께해요 1❤️❤️ @munhee2386 @sun2_midal @ev_ring @eunju6768 @sukkyung0607 @p.rabbit_s2 @290700_j @yeonhana4812 @yeoni_0425 @dalkung2</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>songa3576</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>메타학습도 와이즈캠프와 함께하자! @ccy8595004</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>deep.blue272</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>#메타학습 의 #시작!! #메타인지 를 키워주는 #비상교육와이즈캠프 !! 지금바로 #팔로우 하고 #유용한정보 얻어가요!!👏👏👏 참여완료!!❤️팔로우완료!!❤️ @scanty0416 @utopia_6632 @kimju1657 @jjagalti @min500936 @mybrazildiary @redfish0425 @sin_min_tang @patk4277 @whtnals7 #와이즈캠프 #비상교육 #초등교육 #메타인지 #메타학습법 #메타인지학습법</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>koenkr18</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>와이즈캠프 구경하고 갑시다요~@iseongmin51k @tameraom7 @cdsfas_222 @tndud_12311</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>cookiz1113</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우&amp;좋아요 완료! @kookies_y @naiz2870 초등 학습이래!</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>lcy___19891205</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>❤️❤️https://www.instagram.com/p/Cg0hhGPvWDB/?igshid=YmMyMTA2M2Y=❤️❤️ #공유완료 🔥좋아요완료 🔥팔로워완료 🔥참여완료 🔥😍인친님들함께해요 😍 #와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램 널리 알릴께욥!@ 많은분들의 관심과 사랑속에 승승장구하시고 번창하시길 진심으로 기원합니다 🙏 @hyungkyung77 @iseunggi5161 @arimi5976 @moun_s9 @moonhyeran20 @arimi5976 @83.48 @1982tree @taeng.e.taeng.e ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ ✌ #와이즈캠프 화이팅야~~~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>yjm7981</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>와이즈캠프 팔로우하러오세요 😍😍😍 순간을 소중히 여기며 오늘도 행복한날 되세요🍓🍓🍓🍓🍓🍓🍓🍓 좋은이벤트 감사합니다 ❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️
+#팔로우 👍#좋아요 👍#참여완료 ❤❤❤❤️❤️❤️❤️❤️❤️❤️❤️❤️당첨되면 후기는 정성다해 사랑으로 약속할께요 💙💙💙💙💙💙💙💙💙💙
+@getback1844
+@pretty20180718
+@123dadungmom
+@kumgaokjo
+@songi6852
+@arizona7910
+@sarangmam250                        @ko_ok.0519 더많은사랑받으시길 늘 응원할께요 ❤️❤️❤️❤️❤️❤️❤️❤️❤️❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>redfish0425</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 👏👏 @patk4277 @cje501241 @min500936 @deep.blue272 @jungmis_s @inlucky7 @heea85 @jsb53265267 @scanty0416 @jjagalti #팔로우완료 #좋아요완료</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>eommanig</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>와이즈캠프 응원합니다.♡♡@miso1004</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>yeonvelymom_</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램이야❤️ @smile_u_vely @joo_young_36 @jh._.wonni @luv_woohyun__
+@2yu.emo______ @with20170814</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>lsh8888881212</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>💚업계유일 특허검증 학습법💚
+메타학습의 시작, 와이즈캠프🌟!
+함께 하자구! 앞으로 자주 자주 소통해용! 만나서 반가워요! ! ʚ˘◡˘ɞ
+@arom.k @nayanayuni @rina123kim @kyolic_soon @4.9eee @h____a.na @lee_junher3119 @jean.pien @cdadiet88 (˃̵͈̑ᴗ˂̵͈̑◍)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>shakeitup0524</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이야! @0918leejh @im_hunhwi @mjleemj32</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>yun88200</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 강추강추❤️❤️❤️ @h2k0329 @bom10777
+@inyeong0408 @ejin1228
+@aroa1004 @lovely_sunny84
+@seojujuh @jinhee3368
+@koosay1319</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>4youl.mom</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>[ 와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램 함께해요 ฅ^._.^ฅ 💙 ]
+⠀
+#4남매 #포율이네 #참여완료 #팔로우완료 물품후기약속 🤙 항상 웃을 일이 가득 하길 ~ '◡'
+⠀
+@hjlove3409 @smile_u_vely @hsy150711 @marine091212 @happyminjeong77 @123.dadungmom @ethan_nara_ @16.08.16_mom @yh_blue @yewon_jin9651</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>4youl.mom</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>@4youl.mom #사남매 #포율이네 🖤 ◡̈ 🖤 @munhee2386 @angelrangg @sun2_midal @kimbly_0713 @iminjeong8545 @yeo_eunju83 @hyeran7512__ @yuseonyeong83 @minjunymom
+같이 팔로우 하고 이벤트 참여 합시다 ᙏ͈̫͚ 오늘도 좋은하루 되세요 ꪔ͈̫ 🌿</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>jjagalti</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>🍇🍉팔로우 &amp; 좋아요🍉🍇
+메타인지를 키워주는 초등 스마트학습 프로그램!! 업계 유일 특허검증 학습법으로 우리 아이의 학습력을 키워주는 와이즈캠프!!
+좋은 소식, 알찬 정보들 항상 감사합니다 😘
+#와이즈캠프 #메타인지 #팔로우이벤트
+( . ̫ .)♥ 인친님들과 함께 ( . ̫ .)♥
+@kopecpsa0 @kyoung_wp
+@t7005425 @k.jhyeon4423
+@gmlw.jd5330 @scanty0416
+@yuho258 @ddangkong154
+@tms07689 @cx119112</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>qwwert1245q</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>와이즈캠프 팔로우완료 @park_ok_soon_</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>somtton</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>팔로우 완료! 조카들한테 딱이다잉 @foresomt @mzzz_ip</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>coulson0829</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>초등 스마트학습 필수프로그램! 와이즈캠프는 메타인지를 키워주는 필수템! @lovyuaa @gragas7724 @choigoya33 @uqwedd</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>hye_ji0424</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>와이즈캠프는 메타인지를 키워주는 초등 스마트학습 프로그램이래 🫶🏻🌷
+@yugyeong519 @eunji0424__ @q7lzo8</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>purpwolfjh</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>팔로우 완료 @hiroshi70jp</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>genjisgang</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 는 메타인지를 키워주는 요즘 대세! 신개념 학습법 프로그램이야!❤️ @bonobono__1 @m_vhc990510 @Gongji_ramen #좋아요 #팔로우 #완료</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>yuarstar</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>@sun0304kk @uuar 미리미리 준비하는 자만이 똘똘한 자녀를 만드는거 알지? 현명한 부모님들이 선택하는 #와이즈캠프💕 메타인지를 키워주는 초등 스마트학습 프로그램 함께 관심 가져보쟈🙏</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>wjh9088</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프를 소개해요
+앞으로도 더욱 많은 분들께 즐거운 소식을 알려주는 이런 좋은내용도 알게되고 다들 이곳에서 다른분들과 함께 보면서 많이 응원하고 정도 나누었으면 좋겠어요.
+@kimnoun11 @hsiu_ang_ @byeongryun7184 @inno @woowawawa @lenoe @inmo @afek_official_yez</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>tokake47</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프를 소개해요
+서로서로 도움을 주고 받으며 행복한 하루를 보내며 우리 함께 꽃길 걸어보아요 늘 행복한 일들이 가득 하길 바라며, 자주 소통하고 오늘 하루도 힘찬 발걸음 내딛어 보자구요! 응원합니다~!
+@lenowoo @jun_e.ddin_e @byeongryun7184 @lenowio @lenowio @_lenowood_ @alf16228104840</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>yourselfmango.28</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>🐹 메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 소개할게 🐹
+#참여완료 #공유완료
+#팔로우완료 #좋아요완료
+@saysignalriou03 @oungradiant35</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>skdn01</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>매타학습하자 @ejsnsms</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>xkdis01</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>메타학습은 와이즈캠프 @djdndmsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>alsrb789789</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>@ethics_hyejin @lmj770921 초등 스마트학습 프로그램 와이즈캠프 같이 팔로우해보자!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>vldnfl3</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>초등학생 학부모라면 망설이지말고 메타인지를 키워주는 와이즈캠프로 공부하자! @jiann_y3635 @jwaa55 @pimpernel_rose @aweroll @chelll7789 @jcljo @god_dogpicking @dalk140 @s.young000 @pearl.heo123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>sjaeinnn</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 로 우리아이들 쑥쑥 키워봅시다.
+@gimeuni396 @jjpcome @songjeongmin79 @dongooodong @byweek6 @chcgvchcgv @wytmzk79 @freechal44</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>hyungsu0138</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>요즘 많이 거론 되는 메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 너한테만 알려줄게~ 🤫 @bbolguri @seogsun0138 @ssory_i @tms07689 @kimhunsil1 @iyeongjae138</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>dy_6930</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>와이즈캠프 팔로우하고 메타인지를 키워주는 초등 스마트학습 프로그램 이용해봅시다. 우리 아들도 꼭 시켜볼래요.
+@pmj121270 @skdoak77 @priapus1130 @doflzk99 @magnetkim @t62879064 @daegun77</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>nero72008</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>요즘 이거 몰라? 이게 대세야 메타인지 키워주는 스마트프로그램 #와이즈캠프 @extinct_lee_dodo</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>solla0322</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>@justdoit_0325 @nootbook99 @right03112 @laabaam11 애들아 메타인지 키워주는 프로그램이래 주변에 관심있는 분들 있음 알려줘!</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>semina4323</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>와이즈캠프 팔로우 완료
+메타인지를 키워주는 초등 스마트학습 프로그램 함께 해보자구! @sse0421 @pms8733 @yswssen</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>wanjeeen</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>기초부터 탄탄하게 메타인지를 키워주는 학습 프로그램 와이즈캠프! @_mun_z1 @tyjbup_i</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>eecocoee</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>느끼고 즐기고 만끽할 수 있는 이 특별함 🥰
+#와이즈캠프찐친되기 준비완료 !! ♥
+지금부터 쭉쭉~ 함께 하기로 약속~! 이 매력 ~ 우리 제대로 즐겨요
+역시 이게 바로 남다름의 클라스라는거!!
+이렇게 만나는 #와이즈캠프 의 매력은 더 클것 같다는 생각이 들어서
+저도 소 문 팍팍내야겠다는 생각이 드네요 👍
+이렇게 인스타를 통해 좋은 정보를 뿜뿜
+제대로 얻을 수 있다는것 참 좋은일인것 같아요
+이번 기회를 통해서 더 제대로 배우고 앞으로 더 호감 느낄 것 같다는
+생각드는거 저뿐만 아니겠죠?
+앞으로도 우리 더 다정다감하게 소통하고
+더 많은 것들을 알아볼 수 있으면 참 좋겠다~ 하는 생각이 들어요 !
+이 예쁜 날 우리 앞으로 타임라인 함께 휘저으면서 더 친해져요 🤗
+@sunghee8141 @godrmffkdl @luvring02
+@yeoungeun4020 @insasasa2
+@gustnr9915 @s.young000 @somi23222 함께 즐겨요 🤗</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>eunsuh0709</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>⭐️팔로우완료 메타인지 키워주는 초등 스마트학습 와이즈캠프를 소개해🔮🤗💜 @grum_709 @goodskill99 @heejeung81</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>ramiae9</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>팔로우❤ 완료.
+새친구예요~🌼(*‿*✿)
+반갑습니다 ^*^
+#메타인지 키워주는
+초등 스마트학습 프로그램
+#와이즈캠프 함께 하자~
+@dambimun @atop599 @charm7788 @skdoak77 @sevenho80 @priapus1130</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>happy_gun33541</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>메타버스에 대해서 아직 잘 모른다면!? 와이즈캠프를 통해서 시작해보자🔥🔥🔥
+@choice0010 @kimeungjin1745 @yuyunja53 @beombohyi1 @gimseungju3464 @namgyeongi17 @ojutaeg1 @yein0915 @_jkh_54 @oswaldmiranda38
+#팔로우완료 #좋아요 #이벤트 #EVENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>lim.myunghun</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>안녕하세요 팔로우 및 좋아요 완료합니다 ♡ 메타인지를 키워주는 초등스마트학습 프로그램을 @imjeongmun8066 
+@limdokyum2016
+@dlaaudgns84
+에게도 알려드리고 함께 응원합니다! 이번 소식을 공유해요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ysme_1011</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>@sieun___03 초등 스마트학습은 메타인지를 키워주는 와이즈캠프지~~💕
+#팔로우완료 #좋아요완료 #친구태그완료 #이벤트 #와이즈캠프 #비상교육 #초등교육 #메타인지 #메타학습법 #메타인지학습법 #이벤트그램 #이벤트스타그램 #팔로우이벤트 #팔로우이벤트중 #스타벅스기프티콘이벤트 #기프티콘이벤트 #친구소환이벤트 #팔로우이벤트진행중 #이벤트참여 #이벤트진행중 #이벤트진행 #기프티콘선물 #기프티콘증정 #스타벅스기프티콘 #초딩맘스타그램 #초등맘슽그램 #메타인지학습법 #메타인지학습 #메타인지 #인스타그램팔로우 #인스타그램팔로우이벤트</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>hohoho800522</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>팔로우 완료 ⸜💜💜⸝‍     
+메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 소식 함께하자요 @ssoonn105 @silver00je @sunghee8141 @koreawisdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>leedud1</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>와이즈캠프 소개합니다!
+초등학생을 위한 메타학습을 와이즈캠프로 시작하세요 @bboysti2 @mojin63 @gimseongmin5115 @sarangmam250</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>lomm090</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 와이즈 캠프 울 엄마들 @nasan1221 @haluna6312 에게 알려줘야겟네요 참 좋은 교재 울 아이들을 위한 와이즈캠프 우리 같이 만나봐요</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>kallgoll</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이야!
+#와이즈캠프 팔로우완료 좋아요 언제나 응원합니다
+함께해요 @hanhulk_ @kimdhee0524 @jangsungjooo</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2on2daddy</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>@sewill_moon @gimjiseon617 @songhannahhhh 국정 교과서 발행사 비상교육이 만든 초등 스마트학습! 특허로 검증된, 배운 것을 직접 쓰고 설명하는 메타인지 학습법! 와이즈캠프를 해야 하는 이유라구요^^👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>jsb53265267</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 #비상교육 #초등교육
+#메타인지 #메타학습법 #메타인지학습법 ❤️ 메타인지를 키워주는 초등 스마트학습 프로그램 ❤️ @comickty @ddangkong15 @zani7.9 @gosu12199 @honggildong4190 @jaeeun3377 @3352jung @priapus1130 @whtnals7 @wang_music_khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>sangsik__choi</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>🔥🔥메타학습 와이즈캠프 응원합니다🔥🔥
+#sungsik #hyekyung #zz--Inwood #jonggukz</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>muso__._</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>@_kobu_official 애들한테는 필수인 와이즈캠프, 메타인지학습법 신선하네~
+#팔로우완료</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>dambimun</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>팔로우&amp;좋아요 완료.💜
+♡방가워요♡~♪
+메타인지를 키워주는 초등 스마트학습 프로그램
+#와이즈캠프 추천해~
+@flyj053 @eunhu__nqe @ddemson77 @wytmzk79 @doflzk99</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>bomi471</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>메타인지 중요한거 알지? 초등 학습 습관 길러주는 와이즈캠프야 😍😍 @juicy_lucky00 @yesman0024 @arimi5976 @gsh5678 @sujin.0607 @sweetpot_gurin @jieunheo84</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>im_yooraa7</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>와이즈캠프는 메타인지를 키워주는 초등 스마트학습 프로그램 ㅎㅎ🔒 내 사랑이들 태그 ❣ @i.m.youhi @7777.korea @food.korea99 @4lang_hae @100_logoutlove @eventvisitor @999.wooaa @kckc_zooo ❤️‍🔥 (๑˃̵ᴗ˂̵)و ♡</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>dayeong__97</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>@ooo__6031 기초부터 튼튼하게 하는 초등 스마트학습프로그램</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>banana79000</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>와이즈캠프 🙌🙌 메타인지를 키워주는 초등 스마트학습이지 ㅋㅋ 🎃 @999.wooaa 🤖 @cannonpics 👾 @kckc_zooo 🤠 @2.rooda 😻 @99_mz99 😿 @im_yooraa7 🌸</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>boram014</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>와이즈캠프 @j.b.style.at @kji415 @tj8ther @zeus0228 @kkk37544527 @jin_hongseob @x1942 @nsjfc16</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>yom760202</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>@hidream72 #와이즈캠프 #비상교육 우리가 너무 잘 알고 있지?❤️ 초등학생 아이를 키우고 있으니깐❤️ @hidream72 😍</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>nnyangvli_</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>💙 메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 ❤️ (๑˃̵ᴗ˂̵)و ♡ 좋아요 꾹꾹이 😻😻 나의 냥펀치 친구들 소환 @im_yooraa7 @hygge_mom77 @100_logoutlove @banana79000 @999.wooaa @cannonpics @kckc_zooo 😸냥😽</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>myjju07</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>💙메타인지를 키워주는 초등 스마트학습프로그램 와이즈캠프 함께해요❗💙#와이즈캠프 #응원팡팡 #함께해요 #팔로우완료 #좋아요완료💙 💟 @loidy7749 @heejun173 @kjdcysy @yyd626 @cpt123123 @alswl005 @jimin.hwang.5 @mini021070 @heeeeeee_olaf @yama6737 💟</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>bakkang0930</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>🙋🏻팔로우 완료!! 친구들아 #와이즈캠프 를 아니??? 메타인지를 키워주는 초등 스카트 학습 프로그램인데 우리 아이들 #와이즈캠프 해주면 어떨까?? @yumyum_mogo @jayong6208</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>ne_10.31</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 초등생들의 메타인지를 키워줍니당 ㅎㅎ🐳🐳 좋아요 👍 @food.korea99 @4lang_hae @100_logoutlove @i.m.youhi 🐋</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>charm7788</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>팔로우👍+좋아요❤️ 꾹~!
+인친맺기 완료.💜
+메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 꽉~ 잡자~
+@yumisong0301 @seonyoung4867 @junge0601</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>eunok.1216</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>💗💓💗  #와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램이래요~~^^ 기초부터 튼튼히~!! 초등맘들 모여봐요~^^ ♡ 함께 참여해요~  💗💓💗  
+✅팔로우완료 
+✅좋아요완료 
+✅리그램완료  🍀🍀
+#와이즈캠프 다양하고 멋진 정보들과 이벤트에 감사드립니다~🌸      
+앞으로도 많은 사랑 받으며 번창하시길 바랄께요~ ^^
+행복한일만 가득하세요~~~💙
+#와이즈캠프 #비상교육 #초등교육 #메타인지 #메타학습법 #메타인지학습법
+💟 @shin369999
+💟 @gweongyeongsun39
+💟 @my67759604
+💟 @taeng.e.taeng.e
+💟 @taejin.jeon.18 
+💟 @gyraremxp    
+💟 @alphonzowissing  
+💟 @_eri563
+💟 @my2insta 👍👍👍 https://www.instagram.com/p/ChYvcVBJ7FX/?igshid=YmMyMTA2M2Y=</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>eunok.1216</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>✅ 인친님들도 함께 참여해요~♡
+💛 @jungmis_s 
+💛 @priapus1130 
+💛 @nymphe_83 
+💛 @616jin1212 
+💛 @leejiyoung1007 
+💛 @kimgyojin777   💓💓💓</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>eunok.1216</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>✅ 인친님들도 함께 참여해요~♡
+🌺 @2yu.emo______
+🌺 @zoakap2882
+🌺 @hyeyo83
+🌺 @b._i_._necfiist
+🌺 @__t__rjewelry_mom 
+🌺 @ritazorinaea
+🌺 @ropru_efe366
+🌺 @munbong84  👍👍👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>eunok.1216</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>✅ 인친님들도 함께 참여해요~♡
+💙 @gimjiseon617
+💙 @kimarazzang_
+💙 @scanty0416
+💙 @dall2940
+💙 @jaeeun3377
+💙 @pooh_100503
+💙 @yunhui_4551
+💙 @skdoak77  👍👍👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>yama6737</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>초등엄마라면 #와이즈캠프 꼭한번 봐야지 예습학습 잡아주는 와이즈캠프로 팔로우🍒     좋아요 🍒 친구소환🍒 참여완료🍒 🎈@myjju07 🎈@alswl005 🎈@loidy7749
+🎈@heejun173  🎈@yyy626
+🎈@jimin.hwang.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>jimin.hwang.5</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>핫한 메타인지를키워주는 와이즈캠프 ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>jimin.hwang.5</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>@jimin.hwang.5 팔로우 📱 좋아요 📱 친구소환완료 📱
+@cpt123123 @hjkl0907 @myjju07 @heejun173 @yyd626 @heeeeeee_olaf @alswl005 @jhgott @mini021070</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>49.log.in</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 좋아요 📞@kckc_zooo @999.wooaa @cannonpics @2.rooda @99_mz99 @4lang_hae 👱🏻‍♀️</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>min_g7_6</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>▫️
+▫️
+#와이즈캠프
+▫️ 
+            ❤ 팔로우완료
+✔좋아요❤💯
+@jeonjeongweon57
+@jobaksa70 @yoo_0513
+@jaeing429ky @quiet.yt41 
+@baejong_baek @oops_ican</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>iilp798</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>@rur_ucinocbu @kon_._nkalepil @le._renchurla 업계유일 특허받은 메타인지 학습법! 광고에서 메타인지 엄청 광고하던데__ 요즘학습법 신기하다🙊🦊!!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>busan.korea85</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 #비상교육 추천합니다 친구 소환 🔱 @minky_chu @a.fantagion @food.korea99 @hygge_zzz @4lang_hae @2.rooda @1st_lifestyle @999.wooaa 🙌🙌</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>7777.korea</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>초등학생 메타 인지를 키워주는 #와이즈캠프 정말 좋아요 🥹 @a.fantagion @2.rooda @hygge_mom77 @nnyangvli_ @busan.korea85 @kckc_zooo @cannonpics @eventwinner ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>sospecialbb</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>메타인지 키워주는 초등 스마트학습 프로그램 #와이즈캠프 👏👏 28개월 아기 키우는 워킹맘 입니다 🙌 일하는 이동 도중에 짬이 생겨서 인스타 하다가 참여해봅니다.
+요즘 날이 엄청 덥죠? 조금만 움직여도 힘이 쭉 빠지는 날씨 입니다.
+시원한 음료 한 잔 하고 힘내서 육아하랴 일하랴 살림하랴 열심히 지내고 있습니다.
+시간 날 때 인스타 키워보려고 노력중이라서 당첨되면 후기 열심히 남기겠습니다. 모두 힘내시고 다들 화이팅 합시다! 🙌 @kikikikihuhuhu @who_am_i_1205 @83.48 @pk.jin @jungmis_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>prote1111</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 너희들 한테도 필요할거 같아 ❤️ 팔로우 &amp; 게시물 좋아요 완료 ❤️ @donk4360 @prote11 @cndhrsu04</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>itjustafeelin</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 #팔로우완료 ❤️ 요즘 메타인지 중요하잖아 스마트한 학습 프로그램 같이 팔로우하자! @fatum_et_fides @udivininmypoool 같이하쟣ㅎ 얘들아</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>wooseongsin</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>인스타그램 팔로우완료 참여완료
+@rlagustndhk 메타인지 키워주는 스마트 학습 프로그램 #와이즈캠프 함께 하자 ~ 함께해🧡🧡🧡🧡
+#와이즈캠프 #비상교육 #초등교육
+#메타인지 #메타학습법 #메타인지학습법</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>caehyeon5300</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>#와이즈캠프응원가득드립니다. #참여완료#팔로우완료#리그램완료#친구소환완료❤️🥰 다양한 정보를 통해서 우리 아이들이 최고가 될수있도록 힘써주시길 바랍니다. 항상 응원드립니다. @sun.g1123
+@baginseong8923
+·@u.hyiran
+@irncom29
+@hyelim_koag @j_heart_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>sjdjcjc730</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>팔로우완료💙메타인지 키워주는 초등 스마트학습 프로그램 와이즈캠프로 아이들 즐겁게 학습해요 📌 @1982tree @wang_music_khan @kang45244524</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>laluz645</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>팔로우완료!
+친구들~ 우리 메타인지를 키워주는 초등 스마트학습 프로그램 함께하자!! @onsemero03 @hanyoungdol @lunar_greeni @byeongryun7184 @jkk0929 @jjpcome @koreawisdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>subdue22</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이야! @hi21c1004 @sine21c @kw12.08 @pml8112 @2011kys @7330ks @1982_hero @withnine8 @ytc_1996 @juliet131513</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>333.seoul</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>✌🏻✌🏻 메타인지가 가장 중요한건 다들 알죠??? #와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램 입니당 🐶🐶 유익하고 좋은 소식과 함께, 좋은 일들이 가득하고 많은 분들이 사랑하기를 응원할게요!! 감사합니다. 팔로우 완료 &amp; 좋아요 &amp; 친구소환 @food.korea99 @4lang_hae @100_logoutlove @i.m.youhi @7777.korea @cannonpics @eventwinner @999💜💟</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>aiko100400</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우 이벤트 좋아요 참여완료 @chapter1207 @kimyunjeong21</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>jang.songhee</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 메타학습의시작! @click982615 @dosigas88 @songyangeun6</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>hiwa_07</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>특허 번호 제 10-2374101호
+메타인지능력을 키워주는 와이즈캠프를 소개합니다 ╰(⊡-⊡)و✎ @isana_anila</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>minky_chu</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>비상교육 와이즈캠프는 초등생들의 메타인지를 키울 수 있어요 🙌🙌 💚💚 @hygge_zzz @6_45lotto @im_yooraa7 @ne_10.31 @333.seoul @eventwinner @eventvisitor @999.wooaa 공유합니당💋🥰😘</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>oim2014</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>팔로우완료!
+메타인지를 키워주는 와이즈캠프! 소식 많이 전해주세요!! 메타학습의 시작은 와이즈캠프와 함께!
+@goodsagong @loveangel797 @youwin3456</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>suuddi44</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>초등 스마트 학습 프로그램 와즈캠프와 함께하자 @yesokok77
+팔로우 완료! 💛
+좋아요 꾹❤️
+🥽무더운 8월 우리 지치지말고 화이팅! 함께해요 #비상교육 #와이즈캠프 🍧
+좋은 이벤트 열어주셔서 감사합니다💦
+이벤트 참여할 수 있어서 즐거움이 가득🍨🎈
+즐거운 소통하면서 유익하고 다양한 정보들 많이 알려주세요🎀💧
+🍉인친들의 사랑 듬뿍 받는
+공간으로 오래오래 이어가길
+항상 응원할께요👏👏</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>yesokok77</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>@suuddi44 좋아! 팔로우!</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>shin9469</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>와이즈캠프를 소개합니다. 메타인지능력을 키워주는 학습방법 와이즈캠프로 메타학습 시작해보세요
+@yegam62181234</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>ghktns019</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>와이즈캠프 추천해요💙💙 참여완료 💙💙😁팔로우 완료✌
+모든 팬들과 함께  소통하며 끊임없이 발전하기를 기원합니다 . 늘 파이팅 !!👏</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>songsol99</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>팔로우 완료.
+@jewtia1977 @eeco_luv 메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프. 아이의 학습 더 현명하게 해주길 바래.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>jang5484862020</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 최고의 스마트 학습 프로그램 #와이즈캠프 소개합니다❤️ @gimhun4982 @jaka33642019 @hhoho878486 @hhoho8784 @jang5484862020 @jaka11 @jang927 @giwan689 @hunjintu</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>jay_sean_hello</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>와이즈캠프 알려요 @dalbit_dry</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>choman2323</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>@gimhyemin947 😊 #초등교육 은 역시 #비상교육 이야 💯 #와이즈캠프 에서 #메타학습 시작해 보자!</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1nu2nu</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>초등학습 와이즈캠프 😍😍 메타인지를 키워주는 초등 스마트학습 프로그램 만나보자 @laaaaa_home @choco__zoa @namejoje @hello2020u @dnioelloi @booooora.1111 @baam_guy @vividcccc @lokomobo 함께해요 🍀</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>pms8733</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>와이즈캠프 인스타그램 팔로우 완료👏 메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 일단 팔로우부터 ㄱㄱ @parknami1234 @gabilee2020 @semina4323</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>hygge_zzz</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>💕 ◟( ˘ ³˘)◞ ♡
+💓 와이즈캠프!! 메타인지를 키워주는 초등생에게 꼭 필요한 학습 프로그램이죠 ❣ 💘💘항상 좋은 소식과 소통 해줘서 너무 고맙구요! 👱🏻‍♀️ 자주 들러서 좋아요 누르고 댓글 갈게용 응원합니다👩🏼‍🦱 나의 사랑스런 찐친들 소환 완료 🫂 @4lang_hae @100_logoutlove @i.m.youhi @7777.korea @food.korea99 @kckc_zooo @cannonpics @eventwinner 🌁</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>mskim202004</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>✔️팔로우 완료 ~!!🌱🙋‍♀️🌱
+우리아이 메타학습은 비상교육 #와이즈캠프로~!🌱👍🌱
+@myung.jaeho @hujuhyeon @sunhae.gang @ok2222sung @knm21cs
+함께 해요🍀😄🍀</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2022_yh_yh</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>똑같은 주입식 교육도 문제지만 결국은 자기 스스로를 아는 메타인지 능력이 중요하잖아요 🌸🌸 #와이즈캠프 와 함께 상위 0.1% 학생들의 비밀 메타인지 학습법 우리 아에게도 쏙쏙 심어주고 싶어요
+@kangminkyung_0 @wade3 @hati33355 @sosomimi321 @221believe</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>jiny.__.jiny</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>❤️팔로우,좋아요완료❤️ 와이즈캠프 소식 널리 공유하자 @jh._.ui</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>skyier5</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>메타인지 교육은 역시 와이즈캠프 😍 @ssunmi7616</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>eunhye3684</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트 학습 프로그램으로 우리아이의 잠재능력을 일으켜줘요~ @limeunjung1003 @joy486486</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1st_lifestyle</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>메타인지를 키우는 좋은 학습 프로그램은 #와이즈캠프 🌟 @6_45lotto 🟠@im_yooraa7 @ne_10.31 🔴 @333.seoul 🟢@hygge_zzz @cannonpics💚 @eventwinner ❤️ @eventvisitor 💘</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>cocoraramom</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>상위 0.1% 학생들의 공통 능력💡
+💚메타인지의 시작, 와이즈캠프💚우리 친구들에게 소개해요~
+@jiann_y3635
+@kji415 @plant_j.h
+@red79_79 @cherish710000
+@pomato00 @jin_hongseob</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>savethe2774</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>요즘 놓치면 안되는 메타인지학습법은 초등교육 와이즈캠프에서 해봐!! @jiji.vely @soohyang776 @szmoosz</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>jaejae4544</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>와이즈캠프 좋아요 &amp; 팔로우 완료해요~
+언제나 많은분들이 즐겁게 방문하셔서 고운 흔적 남기시며
+따뜻한 마음의 향기들이 가득한
+행복한 채널이 되세요 ^^ ℒoνℯ❤️
+@yanguseog8781 @chghope
+@dh2miracle @piao906
+@yuha798600 @gguing_1
+@wjdals0208 @mono.7182
+@storyn9 @jj0_099</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>sookizzang_</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 메타인지를 키워주는 프로그램이야 @2021ms_br @ireumanhalgeoya @iampororong</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1303hiyo</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>메타학습은 와이즈캠프로 시작하면돼 @6740hobak</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>ireumanhalgeoya</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>메타학습은 #와이즈캠프 에서 하는거야 명심해 ❤️ @sookizzang_ @1303hiyo @2021ms_br @iampororong 함께해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>hyewest99</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>✅#와이즈캠프 팔로우 좋아요 완료 @munhyeonsug19 ✅메타인지를 키워주는 초등스마트학습프로그램 소식 전해요!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>roveal4</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 같이 좋은것은 공유 하자구^^
+@yn.a21 @nyangnyang.o_o @kimzzang90</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2.rooda</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>우리 초등생 아이 메타 인지를 높이는 #와이즈캠프 🔥🔥 🔈🔈🔈 @99_mz99 @banana79000 @49.log.in @minky_chu @1st_lifestyle @999.wooaa 완료 😍</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>hanabeestar</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우 완료 인스타 통해서 재밌고 유익한 이야기들 많이 알아가고 싶어요 활발한 활동 응원합니다 🙋‍♀️🧡 @minho.088 @bbd27282018 @goodmind77</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>eat.raveler</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>&lt;팔로우완료&gt;😊
+요즘 워낙 비대면수업들이 많다보니까, 나름 혼자서 한다는데 확실히 학습지로 하는게 좋더라구요!!
+@akffpzltm 오빠 이게 리유하는거!! 화상수업도 있고, 스토리텔링이 좋아서 리유가 엄청 좋아해!! 👏</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>jon04171646</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>#팔로우완료 인스타를 통하여 다양한 정보와 좋은 소식들 항상 기대할께요..🎉✧*｡٩(ˊωˋ*)و✧*｡💝🎉
+@lovelyhome_yks
+@jiyulgo
+@baejungim2359
+@cocomary777
+@gimmiseon200
+@gkrry34
+@happy_ddoli 함께해요.🦋🦋</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>ssunmi7616</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>초등 스마트학습은 핫한 #메티인지 키워주는 #와이즈캠프 😍 @j.backgom</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>yn.a21</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>🔹️메타인지를 키워주는 초등 스마트학습 프로그램인 와이즈캠프에요~ #와이즈캠프 #비상교육 #메타인지 @dandelion_hy @ilove.yeon @maryara0207 @kka5227 @jku44_ @hi__soon775 @uin_._.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>songgu</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>매타학습의 시작은 와이즈캠프와 함께!!
+#와이즈캠프 팔로우하자👏👏
+@zero_coke40 @jsm_40041 @heen_yoon @sunnyten555</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>pksiop1</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>정말 마음에 듭니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>zzang2124</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이야^^@seungwony6 @mina_mommy</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>voravora.hi</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>메타인지 쑥쑥 초등 학습프로그램 💁‍♂️ #와이즈캠프 소개해요 @lovely_9942 @kkw1248</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>yummyyummyki</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 #와이즈캠프 주입식교육보단 스스로 공부습관을 길러주는 #와이즈캠프 추천해요!!!!@jjagalti @redsun.skimsun @dkosmor @045wh501</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>iloveyou25890</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>#팔로우완료 메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 를 소개합니다❤️ @icecoffee_777 @abc_loveyou4017 @mjpcapp @ringdingdong4758</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>tjrgus0705</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>와이즈캠프로 메타 학습을 시작 하는 거야 @yukigriffithpurpletortoise6 @mn_foley2015
+@greenapple.ya</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>oreoooreoo</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트 메타학습 프로그램인 #비상교육_와이즈캠프 기대가 되고 강추하고 싶어요
+@eominhoo</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>seonae1223</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>와이즈캠프 소개해줄께~@878787angel</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>i.m.youri</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 ❤︎❤︎
+@gimjimi1288 @riririananan
+@jinyounkwon @coco.dosi
+@bravo_yrrr @daldaguri_forever
+@herome8307 @taewon0097
+메타인지를 키워주는 초등 스마트학습 프로그램 #비상교육 와이즈캠프를 통해 공부를 더욱 재미있게 할 수 있다요~ 아이들의 즐거운 학습을 위해 구독구독 GoGo😘</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>chghope</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우 완료!!
+@onsemero03 @lim930725 @mkm5796 @nebula0919 @sibokida @pinkmango7777 @hanyoungdol @dh2miracle @masa4142 @jeungpyeong 메타인지를 키워주는 초등 스마트학습 프로그램를 함께 이용해보쟈~</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>gimhyi8254</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>팔로우완료 좋아요 완료 @sarangmam250 @doddri11 @kbc4021</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>mickystalker</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>와이즈캠프는 메타인지를 키워주어 스스로 무엇이 부족한지 알고 공부를 더욱 체계적으로 할 수 있도록 해주는 초등 스마트학습 프로그램입니다 ❤️ @didhdakak @giseon7722 @soop486 @pky2020 @koreaant2000 @ksekselove @atemoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>limashtray</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>결과 중심의 공부 방식에서 벗어나
+흥미를 유발하는 새로운 공뷰숩관을 길러주는 #와이즈캠프 관심있는 친구들 꼭 한번 검색해봐요♥ @jeonjeongweon57 @ssm361 @joy486486 @young28212 @yoom_yoom_yoom @pk.jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>bogguce</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>팔로우 완료~ @it_s_yoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>gurumtagi</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>와이즈캠프 확실히 네가 성장할 수 있는 그런 멋진 캠프가 될 것이다 @hehejoun</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>rosa.jinn</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>비상교육 와이즈캠프와 즐거운 아이들 공부 함께하자 💛🧡 @koo.11.18 @buddy._.sss</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>kingminsoo96</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>#초등교육은 와이즈 캠프로 준비하자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>annayog52</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우완료 ✔️ 팔로팔로팔로미❤️ 응원합니다 @z3z33z333 @bvxzz7 @j.verbena</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>kristar0314</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>초등학교 상위 0.1프로 학생들이 하는 #메타학습 의 시작 #와이즈캠프 같이 시작하자 @dzin0618</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>mydr2ams</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>배운 것을 직접 쓰고 설명하여 메타인지 능력을 키우는 학습 방법인 초등 스마트 학습 프로그램 와이즈캠프와 함께 똑똑하고 건강한 여름방학 보내자~
+@oulma5578 @seobugpung @heejini486 @fary009 함께해!</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>salala1991</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 와 함께하고 학습법 쭉쭉 올려보자 🤗
+@221believe @rina123kim @gpgscsm94</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>podong2020</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우 완료했습니다. 메타인지가 아이들의 미래를 중요시된 만큼 아이의 교육을 위해 와이즈캠프와 함께 어떻게 학습해야할지 길잡이가 되어주네요. @bury4223 @nori.kim5 @peanuts_with @ppeppero2021 @hwanny1122 @uiew @flow_happy1 @u_vely.mom @_eecoli</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>kimsiyoul</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우 좋아요 참여완료 @qnalover @focx_fcs @gytresw #함께해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>jiji.vely</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>@wldnjsdl2992 @mimi_01_09 메타인지 키워주는 스마트 학습 프로그램 와이즈캠프 완전 짱임 👍🏻 널리널리 알려주자🙋🏻‍♀️</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>yeonseo769</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>와이즈캠프 인스타그램 팔로우 완료 @hansarang051</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>jihaseul79</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>우리아이 공부! 와이즈캠프로 기초부터 사고력까지 꼼꼼하게 챙겨주니까 추천할께 😊 @dongooodong @hangyutae7678 @ddo_baby @gohunjong @alicestory_b @choi_i_7 @rold1132 @uehftgdu8ij</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>dzin0618</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>메타학습으로 우리 아이들도 상위 0.1% 될수 있게 같이배워요 @lineasy0531</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>borehug</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>메타인지 능력을 키우는 비상교육이 만든 초등 스마트학습 와이즈캠프야 @wryego</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>fineapple485</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 &lt;와이즈캠프&gt; 강력 추천 합니다❤️ @ske__7079 @hagyeonghan1 @hjc7392 @goodhope1004 @teeneng2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>clainpure</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트 학습 프로그램이래 @sharpsharp352</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>sharpsharp352</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>@clainpure 메타인지를 키워주는 초등 스마트 학습 프로그램 좋아보이네</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>deeperaapp</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>@wordplp 메타인지를 키워주는 초등 스마트 학습 프로그램</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>heoclzls</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 와이즈캠프와 함께 합시다 @bilyspark</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>thomas10nm2</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>@tomygolft 메타인지를 키워주는 초등 스마트학습 프로그램</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>junchissa</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>팔로우 완료 #와이즈캠프 입소문 많이 나서 더 빠르게 성장하는 채널이 되기를 응원합니다 앞으로 좋은 콘텐츠들 많이 올려주세요 저도 주변에 많이 알릴게요 ㅎㅎ @shiranuimai2 @hanabeestar @kji415</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>tomygolft</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>@thomas10nm2 메타인지를 키워주는 초등 스마트학습 프로그램</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>ttkyung5</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 페이지 좋아요. 팔로우 완료!!! 리그램 완료!!!
+앞으로 더 많은 사람들의 관심과 격려로 더 많이 소통해서 더 다양한 활약과 변화된 모습 보여 주길 응원하며 기대할게요. @ttkyung5</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>haha_hoho_sy</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>팔로우완료 😍 반가워요 앞으로 다양하고 유익한정보들로 만날수있길바래요 @ejej_kang @dori_dorihae 우리아이들도 메타인지를 키워주는 와이즈캠프와 함께하자 ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>budeully</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>팔로우완료🙌🙌 @jungmlove @wjdals8267 메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 추천해 👏👏</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>hyelee.cho</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>💜 좋아요 팔로우하고 참여합니다~!!^^ 🌺🏵🌸💮 앞으로 더욱 더 많은 사랑 받으시고 늘 행복하세요~! ^^ 늘 건강하시고 가정이 화목하시길 소망합니다~!^^  😍 @best2846 @cocciri @canariya0.0 @hayuri77 @pink.roses.and.me 🌸💏💜</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>zycccreat</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>메타학습의 시작은 와이즈캠프예요 @iii158cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>lineasy0531</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>@jin072500 또치 엄마 우리아이들 #와이즈캠프로 메타인지 학습을 하자구</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>sobal486</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>와이즈캠프 소개해요 @sinji008</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>tangogumi</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>@bakinsu68 @junboso @eedaegun @uncle_mandheling @zzyanikka @xtreme_quaker_ladies @young_blue_black
+공부를 뒤집다! 별난 자신감 와이즈캠프는 결과 중심의 공부 방식에서 벗어나 흥미를 유발하는 새로운 공부 습관을 길러줍니다.
+팔로우 완료, 좋아요 완료
+#와이즈캠프 #비상교육 #초등교육 #메타인지 #메타학습법 #메타인지학습법</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>zxxwoo5</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 소개할게! @p_xxq @con_gcon_g @tooeve21 @gganu9 @boriboy.a @esuuuu45 @solbi3308 @somwe66 @yyulll55 @ksyyeoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>sweetpot_gurin</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>메타학습이라고 알아! 아이들 학습력을 높여주는 와이즈캠프에 놀러와~!!
+@juicy_lucky00 @bomi471 @vitamin.hyosung @ohohoh20510 @zlazla1111 @pu.worg</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>koreaant2000</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>내가 아는 문제와 모르는 문제를 정확히 파악하여 부족한 부분을 채울 수 있는 능력을 길러주는 #와이즈캠프 적극 추천합니다 ❣️
+@skyjun225 @ksekselove @dalsungg @jeyun_8 @tome282 @lucky121216</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>remind_remain</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>와이즈캠프 팔로 참여하쟈~~~~🙌🙌 @ddhus3</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>flowerman572</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 메타인지를 키워주는 초등 스마트학습 프로그램 ❤️ @gimjiseon617 @minjija1367 @jclock47 @peach0242 @ssory_i @quiet.yt41 @yj423844 @jsb53265267 @maryara0207 @freechal44</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>7lucky_strike</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>#팔로우완료 메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프를 소개합니다🍀 @bagseoji1 @nini0707_ @goldnawa7 @surprise458458 @mei.chaerin</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>kingzzang__</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>와이즈캠프 팔로우 고고 ❤️
+@dahee__mom @johi_mom @nam_gang88</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>mangozz1</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>특허로 검증된 #메타인지 #비상교육 #와이즈캠프 @yeonneeii @jyb9608 @whtnals7 @jsb53265267</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>gganu9</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 소개할게! @p_xxq @con_gcon_g @tooeve21 @boriboy.a @esuuuu45 @solbi3308 @somwe66 @zxxwoo5 @yyulll55 @ksyyeoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>laypark1</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 인스타그램 팔로우 완료! 반갑습니다❤️
+와이즈캠프 인스타그램과 함께하는 즐거운 소통 정말 기대되네요~
+유익하고 좋은 정보와 소식 자주 공유해 주시고 늘 즐거운 대화가 오고가는 소통의 장으로 많은 관심과 사랑 듬뿍 받고 승승장구하길 진심으로 기원하고 응원합니다~🙏🙏
+메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 인스타그램 초대합니다!
+@candycho613 @serena.624 @coffee_tta @73lovepc</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>ssonga1015</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>메타인지를 통해 자기주도 학습능력을 향상시켜주는 와이즈캠프로 우리아이들 성취도를 쑥쑥 높여주자💓 @tome282 @daeseok.shin @sunsun25461 @mycity4you @missjel7379 @namrin98</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>soaksnf</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>와이즈캠프 인스타그램 팔로우
+@coya0302 @skc3882 메타학슴의 시작 #와이즈캠프 ok?</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>6740hobak</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>와이즈 캠프는 메타인지를 키워주는 초등 스마트학습 프로그램이야! 💙 @1303hiyo</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>iampororong</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>와이즈 캠프는 메타인지를 키워주는 초등 스마트학습 프로그램입니다!!! 😍 @ireumanhalgeoya @2021ms_br @sookizzang_</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>khk2160</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 기초부터 튼튼하게 😍 메타인지를 키워주는 초등 스마트 학습 프로그램 널리널리 소문내고 친구들과 함께해요 ✨️ 💕 😘 🤗 🙌 🌈🌈  앞으로도 많은 사람이 공감하고 소통할 수 있는 공간이 되길 바라며, 많은 ❤사랑❤과 관심 받으시길 바랍니다.
+🌈🌈 👫👬  친구들과 함께해요 🙆🙆‍♀️🙆‍♂️
+@kyoung_wp  @prizia86  @bk9966 @vanbul77 @moonjh_2u  @legolego_0000 @shin369999 @justone1098 @minjija1367 
+@goodluckeygirl
+🌠🌠🌠   #팔로우완료 #참여완료 #좋아요완료 🐯🐯🐯</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>khk2160</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>🌈🌈 👫👬👭👫 친구들과 함께해요 3️⃣ 🙆🙆‍♀️🙆‍♂️
+@_luv.ju @yunhui_4551 @gimgim6250 @nymphe_83 @khk2160 @leesh2348 @kim_yh0318 @ghjkl544554 @pink1004100 @jeongseoyun7553
+🌠🌠🌠   #팔로우완료 #참여완료 #좋아요완료  🐯 🐯 🐯</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>khk2160</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>👫👬👭👫  친구들과 함께해요 2️⃣ 🙆🙆‍♀️ @olive_oyl96  @eunhwahappy @ssm361 @kkinn_1013 @eui_sister_love  @wjwkeh @weonhyeongjun949 @eunhwahappy @ss_ssk00
+🌠🌠🌠   #팔로우완료 #참여완료 #좋아요완료 🐯 🐯 🐯</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>eunhye_cherry</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>팔로우완료 🙌 @fresh_hye 메타인지를 키워 주는 초등 스마트학습 프로그램이야</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>fresh_hye</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>@eunhye_cherry 😊👍🏻👍🏻</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>kbuq0878</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>다들 초등학생들을 위한 최고의 메타인지 성장 스마트학습 프로그램 와이즈캠프 한 번 관심 가지고 보러와! @taeila47 @wh2r2by @wonk_ku @kimj09001 @plyq.o
+#팔로우완료 #좋아요완료</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>jin072500</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이야 함께하자🔥참여완료🔥 @lineasy0531 @naminami170 @monghakbbooon @nassong8152 @moun_s9 @ss_ssk00 @kkk12qwer @hoho_2709 @shhj7783 @fab_yoon512</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>tajja100</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>@aictnow @neulbaeum 공부 좀 하자~❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>itsssshj</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>팔로우완료</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>krusical33</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>기초부터 튼튼 하게 와이즈캠프 로 기초부터 튼튼하게 잡고 가자~#와이즈캠프 #비상교육 #메타인지 #메타학습법 #메타인지학습법
+@taeyeon_ss @chloesoap @insaheyo @miree_kk</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>__hoyanara__1231</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈
+💐🅻🅾🆅🅴💐
+  🌊 메타인지를 키워주는 초등 스마트학습 프로그램이야! ෆෆ •ᴥ•
+🩰#팔로우완료🖐🏻 ~~~~ 함께해🧸 ˙Ⱉ˙ 💨💨💨
+(❛◡❛) 🌊기분 좋~은 🏖행복한 여름날 되세요 ~~~
+@sh.yun0703  @han_mi_seon @hello_kkomi</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>ehldhh</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>와이즈캠프 좋아요 , 팔로우 완료
+유익한 정보와 소식들 전해주셔서 깊이 감사드립니다
+항상 많은분들이 함께하셔서 온정 가득한 사랑 받으시길 함께하며 응원드려요🥰
+친구들 함께해요^^
+@puhhoi @yanguseog8781 @byeongryun7184 @ottaaintoufl641 @fary009
+@ykmykm45 @jinbong5880 @onekue6481 @danmiee @itaegyeong776</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>celovelo</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>요즘 뜨는 교육! 메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 널리 알립니다😍 팔로우 좋아요 완료! 좋은 이벤트 감사드립니다. 소통하며 응원할께요 @eucali19</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>cpt123123</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>제대로된 메타인지학습법 찾으신다면 와이즈캠프죠 💛팔로우완료💙좋아요완료 💛❤친구 소환완료💚 @scanty0416 @alswl005 @yama6737 @ukiyom_ok @ryu_kimryu @myjju07 @jimin.hwang.5 @jjagalti @heejun173 @yyd626</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>yujamina84</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>팔로우완료🙋‍♀️ @my_seoltang @gimmina8529 @sumii941 @nichey77 @jungyoon_kim_ @yoon_sunny81 @sunmipark12 @sjwoo_3h @rosemary_617</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>yoon_sunny81</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>팔로우완료👏👏 @yujamina84 @jungyoon_kim_ @safetyzone002 @jk1986_ @jinhee0313 @chang_ryong0320 @sungho198305 @luv_mocaa @tdjk_1127 @gosubeen 좋은 이벤트 감사드립니다👍👍 항상 응원합니다❤️❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>wang_music_khan</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>(팔로우❤️좋아요❤️친구소환 완료)
+눈과 귀로만 듣는 공부가 아니라, 직접 손으로 쓰고 말로 설명까지 하는 학습으로 메타인지를 키워주는 비상교육 와이즈캠프.
+내가 안다고 착각하고 넘어가는 것이 아니라, 완전한 나의 지식으로 만들어줍니다.
+@eyemaxi24_2 @b_mary_rv__._9 @w___on__i @imendlosay @jihaseul79 @i_9_o_gsu._ @wthere0 @abramovichf8 @e_ng_____h @jo.jung.dong</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>candycho613</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>팔로우완료♥️
+#와이즈캠프 인스타그램에 유익하고 좋은 컨텐츠가 많아 앞으로 자주 방문하고 많은 도움 받을 것 같아요~
+메타인지를 키워주는 초등 스마트학습 프로그램😍👍
+와이즈캠프 인스타그램! 멋진 활약 너무너무 기대되고 많은 사랑받길 응원합니다♥️
+@laypark1 @coffee_tta @suin_castle</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>0103hm94</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>와이즈캠프 팔로우완료 @0318hk</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>0318hk</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우 완료 ^^
+@0103hm94</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>nuclear_jaehyeon</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>@nuclear20200808 메타학습의 중심 와이즈캠프를 소개할께</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>nuclear20200808</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>@messenger_wd 우리 아이들에게 메타학습의 중심 와이즈캠프를 소개할께</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>ohjw56</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이야! 초등 스마트학습은 요즘 핫한 메타인지를 키워주는 프로그램#와이즈캠프지 앞으로 쭉~ 많은 사람들과의 소통과 좋은 정보 부탁드립니다
+더욱 발전 하는 모습 기대하겠습니다. 응원할께요^^ 화이팅^^
+@gihang7 @hachul1201</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>bluemina88</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>초등 교육! 고민이라면? 비상교육이 만든 초등 학습 브랜드 와이즈캠프와 함께 하세요^^ @asappass2 @wlgid0106 @fedno.1 @baul615</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>binna.b</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>인친구들님께 소개합니다~메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 추천하고 소개합니다~^^ @hair_lucy511 @feelnatureinc @key.7336 @koshunpak
+@marsmanli @harishgogari @choi_don_sung @seula4895</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>aplus75930</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우완료😍 메타인지를 키워주는 초등 스마트학습 프로그램이야 @jeongseunga589 @coesujin895 @narae3455 @suhg1467 @kt1232ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>songsongeee</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>팔로우 완료
+전해주시는 유익하고 소중한 정보 감사드립니다
+늘 많은분들이 가까이에서 함께 하시는 사랑 가득한 와이즈캠프 채널이 되시길 응원드립니다 ^^
+@ss_ssk00 @songbonggeun16 @9.2_eee @goodboy6483 @chanwoopark92
+@902nam @cshoon3136 @ddangkong154 @7d._.jang @happyjoalove</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>gpwjd4793</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이야! #비상교육와이즈캠프 팔로우✔️좋아요❤️완료 항상 응원하겠습니다! @zinnia_7919 @baek_hyeon467 @haegyeong260544112 @bounce_mama @memory_1981 @messenger_wd @sun.s_2world @kmh904 @kimmh901020 @terry_starz</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>joy486486</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 메타인지로 수능까지 준비해요😍 @gimjiseon617 @hyeyo83 @nowadays8869 @jungmis_s @seonmogo @sunghee3434 @boomboomboom1110 @dall2940 @jini22100</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>haammming</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>메타학습 와이즈 @kwilllove214</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>if_ilf</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>메타학습법 어때? 🙌 @oror.v</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>hwanghyunjung1404</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>울 둥이들이 매일하는 와이즈캠프네요.오늘도 오늘의 학습을 열심히했어요#팔로우 이벤트 신청합니다.#메타인지 키워주는 #와이즈캠프#좋아요@henryl89 @yeouidaero56</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>kim_yh0318</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>❤️ 메타학습의 시작~!!  메타인지를 키워주는 초등 스마트학습 프로그램은 역시 #와이즈캠프 👍
+주변 키즈맘들에게 입소문 팍팍 냅니다~🙂
+.
+#비상교육와이즈캠프 앞으로도 많은 사랑 받으며 승승장구 하시길 응원 합니다💜  좋은 소식들로 가득한 공간이 되길 바래요~ 자주 소통하며 다양한 소식들 함께할께요~🙂
+✔️ 친구들, 함께 해요~😘
+✔️ 팔로우, 좋아요 완료 🧡
+@k.seoim   @kbh9156 
+@yunji_1013 @newbin486 
+@kiki_yooung  @abies_ko
+@umin5187  @randori82 
+@dhtnrl35843
+@binda10004</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>kim_yh0318</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>🙋‍♀️ 함께해요~😊😘
+🌿 @eui_sister_love
+🌿 @my._.landscaping_  
+🌿 @minim_ini7656  @moonjh_2u
+🌿 @lovely_raccooni  @jopdzzan
+🌿 @haeshin_j  @biryongsan 
+🌿 @happyminjeong77  @min75422</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>whiteroseyung</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>#팔로우완료 메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프를 소개해요 @huncaegim @applemint037 @boom85953</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>kwilllove214</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>방학엔 와이즈캠프 @haammming</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>jungyoon_kim_</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>참여완료 @yujamina84 @yoon_sunny81 @luv_mocaa @powertang12 @safetyzone002 @jjhee550328 @gosubeen 팔로우완료 앞으로 sns를 통해 다양한 소식들과 정보들 전해주시면서 활발한 소통을 이어나갔으면 좋겠습니다☺항상 응원할게요👏👏</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>babypink275</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>메타인지는 어디라고? 와이즈캠프 초등스마트학습이
+최고지!! 👍
+@minjun0715</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>cks971116</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>팔로우완료 @nikesajang</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>fresh_hye</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>팔로우 완료 💙 @minsoo.bobby 메타인지를 키워주는 초등 스마트학습 프로그램! 와이즈캠프에서 알아봐~*</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>minsoo.bobby</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>@fresh_hye 💙💙</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>nikesajang</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>팔로우 했습니다❤ @cks971116</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>jopdzzan</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>와이즈캠프 ❤️ 메타인지를 키워주는 초등교육 스마트 학습 프로그램이라 믿음이가네요😍 @pumme_ @oooooop78 @mihyun.kim.3745</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>moon251400</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>팔로우완료 다같이 참여해보자고 친구들과 지인들과도 함께 공유하고 참여하고갈게요 수고하셨어요 감사합니다  코로나로 힘든시기 모두모두 잘이겨내고 우리들 어서 만나서 그동안 못나눈 수다하자 ♡♡ @cyan_love0129 @hyunock25 @aaaaa922 @jeensookahn @eunjung7777 @kangyumi7 @kimlaura13 @baby_young_zz</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>xnsh01</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>메타프로그램이야 @aejsnsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>dmsrud5401</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이야!
+다양하고 유익한 정보와 소식까지 접할 수 있게 되길 바래요
+앞으로 많은 발전있기를 응원합니다.
+@gkcjf1234 @ohjw567</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>eunkyung0116</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램이야! 저도 자주 찾아와서 알찬 정보들을 열심히 공유하고 소통하도록 하겠습니다. 많은 분들께 소식을 널리 공유합니다!
+앞으로 잘 부탁 드립니다. 모두가 다하는 그날까지~화이팅!
+@dongje0301 @jinwoo5601</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>sumii941</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>팔로우완료 🌈🌈
+@juyeong3727
+@kyj7607 @lhj1234000
+@agnes_hhee
+@yujamina84
+@freetempo.lee
+@my_seoltang</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>kim_yh0318</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>🙋‍♀️ 함께해요~😊😘
+🌿 @aerim.kim  @ghj_2322 
+🌿 @keh617   @wjwkeh
+🌿 @weonjunghun  @vhvbv365
+🌿 @flow_happy1  @nori.kim5
+🌿 @kimmajung3  @kim_daniel0102</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>kim_yh0318</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>🙋‍♀️ 함께해요~😊😘
+🌿 @nayeon__0215 @jm__js
+🌿 @andaeun755  @merry_0302
+🌿 @hongsunbok56  @kkinn_1013
+🌿 @ssm361   @dada.7705
+🌿 @vanbul77  @yunjongin85</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>milky_way_0123</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>와이즈캠프 팔로우 완료💛😊🌷 @elin_day_day</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>messenger_wd</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>@gpwjd4793 메타학습의 중심 와이즈캠프를 소개할께요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>lucky121216</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>공부의 기본은 내가 이 문제를 잘 아는지 모르는지 확실히 인지하고 부족한 부분을 채우는 것! 그러한 능력을 말하는 메타인지를 키워주는 초등 스마트학습 프로그램이 바로 와이즈캠프지🙌😊 @coeinhwa5073 @an.sangki @skygain0207 @ryuseokhyun0701 @sunsun25461</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>itsssshj</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>#초등교육 #비상교육 에는 #와이즈캠프 이징~!</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>rlgus06</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>메타인지는?? 와이즈캠프~!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>5mm5mm5mm</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>메타학습의 시작 그건 바로 와이즈캠프지! 와이즈캠프와 함께 시작하자❤️ @ozoz0901</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>kimminjeong2238</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>초등교육은 #와이즈캠프 같이해요 @kristar0314</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>mintt_candyy</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>와이즈캠프에서 메타인지학습법 함께해요♥️ @qr23658 @fobbi2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>dazim0505</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>비상 와이즈캠프 파이팅 응원합니다👏👏 @bluerain11x_ @seong_s.l</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>kimminjeong2238</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>#초등교육 기초부터 튼튼하게 배우려면 #와이즈캠프 가 필수지 @kingminsoo96</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>ejin1228</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습 프로그램 #와이즈캠프 를 소개합니다🌈🌈 @nini0707_ @imiso189 @goldnawa7 @onlyone_lo_ve @ringdingdong4758 @icecoffee_777 @abc_loveyou4017 @loveme75489 @sohappy_2021 @sihoomam84</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>doddri11</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 팔로우완료 좋아요 메타인지를 키워주는 초등 스마트학습 프로그램📢 @kingofkes
+@jsb53265267 @boyoung462 @tod123_234 @haengboghae540 @evnwnlr0</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>sungyongshim</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 와이즈캠프👏🙌 @dandelion_hy @tlaqhals1914 @garlicsy0000 @f111282 @jukwangk @moun_s9 @anjihye5088</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>dandelion_hy</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>메타학습의 시작💗 와이즈캠프와 함께해요🥰 #와이즈캠프 @bation_dd @seonyeong6069 @joys_0621 @garlicsy0000 @sungyongshim @1mwph22 @fluffy_vibes_ @uhihi.z @moun_s9 💐</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>zelness</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등 스마트학습프로그램 와이즈캠프 같이하자 @kimminjeong2238
+@remember_425
+@jjmj8965
+@hyoi100
+@goeung167
+@preciousmysi
+@rrhrrhak81
+@namga94
+@wicked78910 @nana_drop_</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>milkyy1004</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 #와이즈캠프 아이들과 함께 시작해요♥️ @dsds8344 @dmsdn0910</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>nikkorr_</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>공부가 재미있고 즐거워지는 학습 환경 속에서 우리 아이들이 별난 자신감으로 세상을 뒤집는 기발한 리더로 성장하는 것을 돕는 비상교육이 만든 초등 스마트 학습 와이즈캠프 인스타그램을 팔로우 하고 소식 받아요. ^^ @hihi_diet22 @nikonmen527</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>asura4266</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>팔로우완료 ❤️ @jinyeoung.no1 @lee51272020 초등 스마트학습 프로그램 와이즈캠프 소개해요 .. 🤗🤗</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>inmk7777</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>어릴 적 공부습관이 중.고등학교 성적을 좌우하더라구요! 와이즈캠프로 초등학교 때부터 기초를 차근차근 다지면 고학년에는 공부 재미를 붙이게 됩니다! @wanhocoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>food.korea99</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>와이즈캠프는 초등학생 메타 인지를 키울 수 있는 정말 좋은 교육 프로그램이에요 ㅋㅋㅋ 🍒 @2.rooda @hygge_mom77 @nnyangvli_ @busan.korea85 @a.fantagion @999.wooaa @kckc_zooo @cannonpics 🐙</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>anwjs92</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>메타학습의 시작 와이즈캠프 ✅ 참여완료 ✅ 팔로우완료 ✅ 좋아요 ✅ 리그램완료 @anwjs92 @ksh727 @ksh92582 @ksh9258 @lms101602 @daekyung.kang @s_oookk @hstrbl</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>a.fantagion</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>와이즈 캠프는 메타인지를 키워주는 초등 스마트학습 프로그램 🙌🙌 🐤 @1st_lifestyle @99_mz99 @banana79000 @49.log.in @minky_chu @eventvisitor @999.wooaa @kckc_zooo 🐶🐶</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>kimsoohyun9648</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>저도 팔로우 완료 👏👏 다양한 콘텐츠와 즐거운 소통으로 언제나 많은 분들의 사랑 듬뿍 받는 공간이 되기를 응원할게요 메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 같이 만나보자 😍
+@itaegyeong776 @jeongmigyeong336 @eeeeejeir @jwy2215</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>kky12291004</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>팔로우완료</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>wookk1414</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>와이즈캠프 너무 조아요ㅋㅋㅋ 팔로우하자 @woo_c095</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>lej5629</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>메타인지를 키워주는 초등교육 스마트 학습 프로그램☘️☘️➡️팔로우 완료🌿🌿 ❤️참여완료 🔜이제 우리사이 깐부깐부ㅋ ◖ฺ|⌯˃̶₎₃₍˂̶ ॣ|◗·˳♪⁎˚♫ !!!!!
+친구로 오래오래 함께하며 늘 응원할게요^^ ~홧팅홧팅 아자아자✺◟(∗❛ัᴗ❛ั∗)◞✺모든일들이 술술 풀리는 만사형통의 해가 되시길 간절히 바래요 ˏ ˋ ★ˎˊ ˗ ˋ ★ˎˊ ˗ ☆ (⁎⁍̴̀﹃ ⁍̴́⁎)♡
+@jung_jung302 @mm.mm.mm54321 @apple52777 @1004hello @phs2906</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>udivininmypoool</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>#팔로우완료 기초부터 튼튼히 하는 #와이즈캠프 둥이들에게 추천해! 👍@kido3312 @iminji583 너네두 팔로우 고고 😍</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>flowery1203</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>메타인지 능력을 키우는 #와이즈캠프 우리아이들에게 꼭 필요하다구⭐️⭐️ @999._.101010 @lmj770921 @oumme__ @sz_09aw</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>eunok.1216</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>✅ 인친님들도 함께 참여해요~♡
+💚 @___emily__._14
+💚 @_h_yag_._a___._r
+💚 @9534001363a
+💚 @9678667656a
+💚 @gimbognam46
+💚 @hjd8366   👍👍👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>eunok.1216</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>✅ 인친님들도 함께 참여해요~♡
+🌸 @hyijeonggweon4
+🌸 @vasdh56
+🌸 @9626890013a
+🌸 @cvqddzjqlmlwyu
+🌸 @afri.official
+🌸 @pwb_casa
+🌸 @_._othu_77
+🌸 @hot.ple_dalin_
+🌸 @todayscart579   👍👍👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>kingaza1136</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 아직도 모른다구요?! 메타인지 학습 최강자 다 알고 계실거에요^^❤️ @wjdcjfrl0322, @plus9696, @claor12, @roeun278, @rogun666, @thaor9414</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>yoonseo_choi85</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>지금 타사 제품으로 계약을 해서 교육중인데, 거의 끝나가거든요! 와이즈캠프 한번 알아보고 갈아타야겠어요~^^ @nahyi440 @osangeun52 #와이즈캠프 #비상교육 #초등교육
+#메타인지 #메타학습법 #메타인지학습법</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>deer15750</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>팔로우 완료~^^*
+@miya_nolza @kyuri0608 @himimmin @yunii4239 초등 스마트학습 프로그램 와이즈캠프와 함께해~</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>100_logoutlove</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>가장 중요한 메타인지를 키워주는 초등 스마트학습 프로그램 🙌 #와이즈캠프 소환해요 @nnyangvli_ @busan.korea85 @a.fantagion @2.rooda @hygge_mom77 @999.wooaa 🌟</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>arimi5976</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>와이즈캠프 하나면 우리 아이들 학습걱정은 덜었다야😄 자기주도학습 키워주는 초등 스마트학습 프로그램이야💙 @iam_2vely @lee51272020 @eee2_hs @rdnxls @jenny099021 @lcy___19891205 @bomi471</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>haru_s2s2</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>와이즈캠프와 함께라면 우리 아이 교육 처음부터 탄탄하게 잡을 수 이따❤️ @5mm5mm5mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>djawl00</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>#와이즈캠프 소개할게❤️ @seungtaeg11 @hgyunam474 @jyb9608</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>hwayounglove</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>와이즈캠프 인스타그램 팔로우 완료! 공부습관을 잡아줄것같은 와이즈캠프! 소식들어요!
+@oim2014 @hayhappy76 @sn4374237 @soojunglife24
+메타인지를 키워주는 초등 스마트학습 프로그램 와이즈캠프 소식듣자!</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>honing0923</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>여기 틀을 깨고, 공부를 즐겁게 나만의 것으로 만드는 초등생 공부를 책임지는 와이즈캠프가 있어요~! 구경오세요! 🥰 @prizia86 @h.sangyeon @min75422</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>hippodoeseatmeat</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>메타학습의 시작, 와이즈캠프 💙@junstar225 @gds_sdgvxcv @whitexbee._ @momomo181888</t>
         </is>
       </c>
     </row>
